--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/hara_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/hara_station_configuration_extended.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ88"/>
+  <dimension ref="A1:AR88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +644,11 @@
           <t>file</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>inventory</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -652,7 +656,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0-20000-0-22235</t>
+          <t>0-20000-0-23383</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -662,14 +666,14 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>22235</v>
+        <v>23383</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>KRASNOSCEL'E</t>
+          <t>AGATA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -678,20 +682,20 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.05083333333333</v>
+        <v>93.49250000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>67.35055555555554</v>
+        <v>66.92611111111111</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1992-03-08</t>
+          <t>1962-03-09</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1992-03-08</t>
+          <t>1962-07-21</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -713,7 +717,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Kirovsk</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -746,18 +750,25 @@
         </is>
       </c>
       <c r="AM2" t="n">
-        <v>2.3</v>
+        <v>14.8</v>
       </c>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="n">
-        <v>146</v>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP2" t="n">
-        <v>157.2</v>
+        <v>278.32</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>22235_stationfile.csv</t>
+          <t>23383_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -767,7 +778,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0-20000-0-22408</t>
+          <t>0-20000-0-22235</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -777,14 +788,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>22408</v>
+        <v>22235</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>KALEVALA</t>
+          <t>KRASNOSCEL'E</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -793,20 +804,20 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>31.15</v>
+        <v>37.05083333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>65.21666666666667</v>
+        <v>67.35055555555554</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1962-08-20</t>
+          <t>1992-03-08</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1962-12-08</t>
+          <t>1992-03-08</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -828,7 +839,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Kostomuksha</t>
+          <t>Kirovsk</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -861,18 +872,23 @@
         </is>
       </c>
       <c r="AM3" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="n">
-        <v>58.8</v>
+        <v>146</v>
       </c>
       <c r="AP3" t="n">
-        <v>120</v>
+        <v>157.2</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>22408_stationfile.csv</t>
+          <t>22235_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -882,7 +898,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0-20000-0-25248</t>
+          <t>0-20000-0-22408</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -892,14 +908,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>25248</v>
+        <v>22408</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ILIRNEJ</t>
+          <t>KALEVALA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -908,20 +924,20 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>167.9666666666667</v>
+        <v>31.15</v>
       </c>
       <c r="L4" t="n">
-        <v>67.25</v>
+        <v>65.21666666666667</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1971-02-25</t>
+          <t>1962-08-20</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1971-06-25</t>
+          <t>1962-12-08</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -943,7 +959,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kostomuksha</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -976,20 +992,23 @@
         </is>
       </c>
       <c r="AM4" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO4" t="n">
+        <v>58.8</v>
       </c>
       <c r="AP4" t="n">
-        <v>353.7</v>
+        <v>120</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>25248_stationfile.csv</t>
+          <t>22408_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -999,7 +1018,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0-20111-0-21825</t>
+          <t>0-20000-0-25248</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1009,14 +1028,14 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>21825</v>
+        <v>25248</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">OSTROV MOSTAKH </t>
+          <t>ILIRNEJ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1025,20 +1044,20 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>129.92</v>
+        <v>167.9666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>71.53</v>
+        <v>67.25</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1987-04-10</t>
+          <t>1971-02-25</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1990-12-22</t>
+          <t>1971-06-25</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1093,7 +1112,7 @@
         </is>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
@@ -1102,11 +1121,16 @@
         </is>
       </c>
       <c r="AP5" t="n">
-        <v>-999</v>
+        <v>353.7</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21825_stationfile.csv</t>
+          <t>25248_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1140,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0-20111-0-22205</t>
+          <t>0-20111-0-21825</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1126,14 +1150,14 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>22205</v>
+        <v>21825</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t xml:space="preserve">OSTROV MOSTAKH </t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1142,20 +1166,20 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>31.17</v>
+        <v>129.92</v>
       </c>
       <c r="L6" t="n">
-        <v>67.59999999999999</v>
+        <v>71.53</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1986-10-31</t>
+          <t>1987-04-10</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1993-09-15</t>
+          <t>1990-12-22</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1177,7 +1201,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Kovdor</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1213,15 +1237,22 @@
         <v>0</v>
       </c>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="n">
-        <v>29.8</v>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP6" t="n">
         <v>-999</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>22205_stationfile.csv</t>
+          <t>21825_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>HARA</t>
         </is>
       </c>
     </row>
@@ -1339,6 +1370,11 @@
           <t>21908_stationfile.csv</t>
         </is>
       </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1346,7 +1382,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0-20000-0-04231</t>
+          <t>0-20111-0-22205</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1356,14 +1392,14 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>4231</v>
+        <v>22205</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MITTARFIK KANGERLUSSUAQ (SDR. STROEMFJORD LUFTHAVN)</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1372,20 +1408,20 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-50.71666666666667</v>
+        <v>31.17</v>
       </c>
       <c r="L8" t="n">
-        <v>67.01666666666667</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1962-04-30</t>
+          <t>1986-10-31</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1992-10-14</t>
+          <t>1993-09-15</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1403,11 +1439,11 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kovdor</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -1440,20 +1476,23 @@
         </is>
       </c>
       <c r="AM8" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO8" t="n">
+        <v>29.8</v>
       </c>
       <c r="AP8" t="n">
-        <v>53</v>
+        <v>-999</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>04231_stationfile.csv</t>
+          <t>22205_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>HARA</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1502,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0-20000-0-04330</t>
+          <t>0-20000-0-04231</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1473,14 +1512,14 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>4330</v>
+        <v>4231</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DANEBORG</t>
+          <t>MITTARFIK KANGERLUSSUAQ (SDR. STROEMFJORD LUFTHAVN)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1489,20 +1528,20 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-20.21694444444444</v>
+        <v>-50.71666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>74.30749999999999</v>
+        <v>67.01666666666667</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1968-03-04</t>
+          <t>1962-04-30</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1970-08-22</t>
+          <t>1992-10-14</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1557,7 +1596,7 @@
         </is>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
@@ -1566,11 +1605,16 @@
         </is>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>04330_stationfile.csv</t>
+          <t>04231_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1624,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0-20111-0-04230</t>
+          <t>0-20000-0-04330</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1590,14 +1634,14 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>4230</v>
+        <v>4330</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>HOLSTEINBORG</t>
+          <t>DANEBORG</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1606,20 +1650,20 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-53.67</v>
+        <v>-20.21694444444444</v>
       </c>
       <c r="L10" t="n">
-        <v>66.92</v>
+        <v>74.30749999999999</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1963-03-03</t>
+          <t>1968-03-04</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1971-08-02</t>
+          <t>1970-08-22</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1674,7 +1718,7 @@
         </is>
       </c>
       <c r="AM10" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
@@ -1683,11 +1727,16 @@
         </is>
       </c>
       <c r="AP10" t="n">
-        <v>-999</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>04230_stationfile.csv</t>
+          <t>04330_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1746,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0-20001-0-01010</t>
+          <t>0-20111-0-04230</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1707,14 +1756,14 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>1010</v>
+        <v>4230</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ANDOYA (1010-1)</t>
+          <t>HOLSTEINBORG</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1723,20 +1772,20 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>16.13083333333334</v>
+        <v>-53.67</v>
       </c>
       <c r="L11" t="n">
-        <v>69.31527777777778</v>
+        <v>66.92</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1966-01-01</t>
+          <t>1963-03-03</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1968-07-18</t>
+          <t>1971-08-02</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1754,11 +1803,11 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1791,18 +1840,25 @@
         </is>
       </c>
       <c r="AM11" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="n">
-        <v>58.3</v>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP11" t="n">
-        <v>13.1</v>
+        <v>-999</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>01010_stationfile.csv</t>
+          <t>04230_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>HARA</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1868,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0-20000-0-25282</t>
+          <t>0-20700-0-04210</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1822,14 +1878,14 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>25282</v>
+        <v>4210</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>MYS VANKAREM</t>
+          <t xml:space="preserve">UPERNAVIK                </t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1838,20 +1894,20 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-175.8333333333333</v>
+        <v>-56.16666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>67.83333333333333</v>
+        <v>72.78333333333333</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1980-03-22</t>
+          <t>1962-05-15</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1996-05-13</t>
+          <t>1971-08-04</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1869,7 +1925,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1906,7 +1962,7 @@
         </is>
       </c>
       <c r="AM12" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
@@ -1915,11 +1971,16 @@
         </is>
       </c>
       <c r="AP12" t="n">
-        <v>4.8</v>
+        <v>-999</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>25282_stationfile.csv</t>
+          <t>04210_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>WMO</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1990,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0-20300-0-01020</t>
+          <t>0-20001-0-01010</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1939,14 +2000,14 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>KINNVIKA STATION</t>
+          <t>ANDOYA (1010-1)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1955,20 +2016,20 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>18.3</v>
+        <v>16.13083333333334</v>
       </c>
       <c r="L13" t="n">
-        <v>80.05</v>
+        <v>69.31527777777778</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1966-01-01</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1963-08-19</t>
+          <t>1968-07-18</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1986,11 +2047,11 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -2023,20 +2084,23 @@
         </is>
       </c>
       <c r="AM13" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO13" t="n">
+        <v>58.3</v>
       </c>
       <c r="AP13" t="n">
-        <v>7</v>
+        <v>13.1</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>01020_stationfile.csv</t>
+          <t>01010_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2110,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0-20000-0-22165</t>
+          <t>0-20000-0-25282</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2056,14 +2120,14 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>22165</v>
+        <v>25282</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>KANIN NOS</t>
+          <t>MYS VANKAREM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2072,20 +2136,20 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>43.2875</v>
+        <v>-175.8333333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>68.65527777777778</v>
+        <v>67.83333333333333</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1980-03-22</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1962-10-31</t>
+          <t>1996-05-13</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -2107,7 +2171,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Arkhangelsk</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -2140,18 +2204,25 @@
         </is>
       </c>
       <c r="AM14" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="n">
-        <v>474.2</v>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP14" t="n">
-        <v>48.5</v>
+        <v>4.8</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>22165_stationfile.csv</t>
+          <t>25282_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2232,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0-20300-0-20047</t>
+          <t>0-20000-0-01013</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2171,14 +2242,14 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>20047</v>
+        <v>1005</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BUKHTA TIKHAYA/GUKER IS.</t>
+          <t>ISFJORD RADIO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2187,20 +2258,20 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.8</v>
+        <v>13.61916666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>80.45</v>
+        <v>78.0625</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-04</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1963-04-28</t>
+          <t>1968-04-20</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -2218,7 +2289,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -2255,7 +2326,7 @@
         </is>
       </c>
       <c r="AM15" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
@@ -2264,11 +2335,16 @@
         </is>
       </c>
       <c r="AP15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>20047_stationfile.csv</t>
+          <t>01005_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2354,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0-20001-0-01004</t>
+          <t>0-20000-0-23552</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2288,14 +2364,14 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>1004</v>
+        <v>23552</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NY-ALESUND II</t>
+          <t>TARKO-SALE</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2304,20 +2380,20 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>11.92222222222222</v>
+        <v>77.77083333333333</v>
       </c>
       <c r="L16" t="n">
-        <v>78.92333333333333</v>
+        <v>64.91138888888889</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1993-04-13</t>
+          <t>1958-05-03</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1965-08-13</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -2335,11 +2411,11 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Tarko-Sale</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -2372,20 +2448,23 @@
         </is>
       </c>
       <c r="AM16" t="n">
-        <v>0.4</v>
+        <v>16.2</v>
       </c>
       <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO16" t="n">
+        <v>1.7</v>
       </c>
       <c r="AP16" t="n">
-        <v>7.7</v>
+        <v>27.1</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>01004_stationfile.csv</t>
+          <t>23552_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2474,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0-20000-0-01025</t>
+          <t>0-20300-0-01020</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2405,14 +2484,14 @@
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TROMSO/LANGNES</t>
+          <t>KINNVIKA STATION</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2421,20 +2500,20 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>18.91305555555556</v>
+        <v>18.3</v>
       </c>
       <c r="L17" t="n">
-        <v>69.67666666666668</v>
+        <v>80.05</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1963-04-28</t>
+          <t>1963-08-19</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -2452,11 +2531,11 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -2489,18 +2568,25 @@
         </is>
       </c>
       <c r="AM17" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
       <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="n">
-        <v>3.3</v>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP17" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>01030_stationfile.csv</t>
+          <t>01020_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2596,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0-20111-0-71918</t>
+          <t>0-20000-0-22165</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2520,14 +2606,14 @@
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>71918</v>
+        <v>22165</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ARCTIC BAY, NT</t>
+          <t>KANIN NOS</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2536,20 +2622,20 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-85.15000000000001</v>
+        <v>43.2875</v>
       </c>
       <c r="L18" t="n">
-        <v>73.03</v>
+        <v>68.65527777777778</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1966-06-30</t>
+          <t>1962-10-31</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2567,11 +2653,11 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Arkhangelsk</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -2604,20 +2690,23 @@
         </is>
       </c>
       <c r="AM18" t="n">
-        <v>5.9</v>
+        <v>0.8</v>
       </c>
       <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO18" t="n">
+        <v>474.2</v>
       </c>
       <c r="AP18" t="n">
-        <v>-999</v>
+        <v>48.5</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>71918_stationfile.csv</t>
+          <t>22165_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2716,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0-20300-0-71968</t>
+          <t>0-20300-0-20047</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2637,14 +2726,14 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>71968</v>
+        <v>20047</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AKLAVIK</t>
+          <t>BUKHTA TIKHAYA/GUKER IS.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2653,20 +2742,20 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-135</v>
+        <v>52.8</v>
       </c>
       <c r="L19" t="n">
-        <v>68.23</v>
+        <v>80.45</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1950-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1960-09-12</t>
+          <t>1963-04-28</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2684,7 +2773,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2721,7 +2810,7 @@
         </is>
       </c>
       <c r="AM19" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr">
@@ -2730,11 +2819,16 @@
         </is>
       </c>
       <c r="AP19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>71968_stationfile.csv</t>
+          <t>20047_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2838,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0-20000-0-23078</t>
+          <t>0-20300-0-23074</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2754,14 +2848,14 @@
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>23078</v>
+        <v>23074</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NORIL'SK</t>
+          <t>DUDINKA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2770,20 +2864,20 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>88.26388888888889</v>
+        <v>86.17</v>
       </c>
       <c r="L20" t="n">
-        <v>69.34722222222221</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1980-02-05</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1996-05-23</t>
+          <t>1992-10-13</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -2805,7 +2899,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Norilsk</t>
+          <t>Dudinka</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -2838,18 +2932,23 @@
         </is>
       </c>
       <c r="AM20" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="AP20" t="n">
-        <v>64.59999999999999</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>23078_stationfile.csv</t>
+          <t>23074_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2958,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0-20000-0-71938</t>
+          <t>0-20001-0-01004</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2869,14 +2968,14 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>71938</v>
+        <v>1004</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>KUGLUKTUK A, NU</t>
+          <t>NY-ALESUND II</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2885,20 +2984,20 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-115.1438888888889</v>
+        <v>11.92222222222222</v>
       </c>
       <c r="L21" t="n">
-        <v>67.81666666666666</v>
+        <v>78.92333333333333</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1948-01-02</t>
+          <t>1993-04-13</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1970-02-17</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -2916,7 +3015,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2953,7 +3052,7 @@
         </is>
       </c>
       <c r="AM21" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr">
@@ -2962,11 +3061,16 @@
         </is>
       </c>
       <c r="AP21" t="n">
-        <v>22.6</v>
+        <v>7.7</v>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>71938_stationfile.csv</t>
+          <t>01004_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2976,7 +3080,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0-20000-0-04339</t>
+          <t>0-20000-0-01025</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2986,14 +3090,14 @@
         <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>4339</v>
+        <v>1030</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ITTOQQORTOORMIIT (SCORESBYSUND)</t>
+          <t>TROMSO/LANGNES</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -3002,20 +3106,20 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-21.95111111111111</v>
+        <v>18.91305555555556</v>
       </c>
       <c r="L22" t="n">
-        <v>70.48444444444445</v>
+        <v>69.67666666666668</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1980-10-25</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1963-04-28</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -3033,11 +3137,11 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -3070,20 +3174,23 @@
         </is>
       </c>
       <c r="AM22" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO22" t="n">
+        <v>3.3</v>
       </c>
       <c r="AP22" t="n">
-        <v>71.45999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>04339_stationfile.csv</t>
+          <t>01030_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3200,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0-20000-0-02185</t>
+          <t>0-20300-0-04310</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3103,14 +3210,14 @@
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>2185</v>
+        <v>4310</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>LULEA-KALLAX (2185-0)</t>
+          <t>NORD</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3119,20 +3226,20 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>22.11444444444444</v>
+        <v>-16.67</v>
       </c>
       <c r="L23" t="n">
-        <v>65.54333333333334</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1977-08-05</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-05-10</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -3150,11 +3257,11 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Lulea</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -3187,18 +3294,25 @@
         </is>
       </c>
       <c r="AM23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="n">
-        <v>3.8</v>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP23" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>02185_stationfile.csv</t>
+          <t>04310_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3322,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0-20000-0-71074</t>
+          <t>0-20111-0-71918</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3218,14 +3332,14 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>71074</v>
+        <v>71918</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ISACHSEN (AUT), NU</t>
+          <t>ARCTIC BAY, NT</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3234,20 +3348,20 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-103.5544444444444</v>
+        <v>-85.15000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>78.79222222222222</v>
+        <v>73.03</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1948-08-18</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1978-06-19</t>
+          <t>1966-06-30</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -3302,7 +3416,7 @@
         </is>
       </c>
       <c r="AM24" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr">
@@ -3311,11 +3425,16 @@
         </is>
       </c>
       <c r="AP24" t="n">
-        <v>58</v>
+        <v>-999</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>71074_stationfile.csv</t>
+          <t>71918_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>HARA</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3444,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0-20300-0-21358</t>
+          <t>0-20001-0-22522</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3335,14 +3454,14 @@
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>21358</v>
+        <v>22522</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>OSTROV ZOHOVA</t>
+          <t>KEM'</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3351,20 +3470,20 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>152.83</v>
+        <v>34.65</v>
       </c>
       <c r="L25" t="n">
-        <v>76.15000000000001</v>
+        <v>64.95</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1993-11-15</t>
+          <t>1973-05-17</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -3386,7 +3505,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kem</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -3419,20 +3538,23 @@
         </is>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO25" t="n">
+        <v>9.9</v>
       </c>
       <c r="AP25" t="n">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>21358_stationfile.csv</t>
+          <t>22522_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3564,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0-20000-0-23383</t>
+          <t>0-20000-0-25042</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3452,14 +3574,14 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>23383</v>
+        <v>25042</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AGATA</t>
+          <t>AJON</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3468,20 +3590,20 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.49250000000001</v>
+        <v>167.9688888888889</v>
       </c>
       <c r="L26" t="n">
-        <v>66.92611111111111</v>
+        <v>69.91861111111112</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1962-03-09</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1962-07-21</t>
+          <t>1995-12-09</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -3536,7 +3658,7 @@
         </is>
       </c>
       <c r="AM26" t="n">
-        <v>14.8</v>
+        <v>1.3</v>
       </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr">
@@ -3545,11 +3667,16 @@
         </is>
       </c>
       <c r="AP26" t="n">
-        <v>278.32</v>
+        <v>13.7</v>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>23383_stationfile.csv</t>
+          <t>25042_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3686,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0-20700-0-04210</t>
+          <t>0-20300-0-71968</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3569,14 +3696,14 @@
         <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>4210</v>
+        <v>71968</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">UPERNAVIK                </t>
+          <t>AKLAVIK</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3585,20 +3712,20 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-56.16666666666666</v>
+        <v>-135</v>
       </c>
       <c r="L27" t="n">
-        <v>72.78333333333333</v>
+        <v>68.23</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1962-05-15</t>
+          <t>1950-01-01</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1971-08-04</t>
+          <t>1960-09-12</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -3616,7 +3743,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -3653,7 +3780,7 @@
         </is>
       </c>
       <c r="AM27" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr">
@@ -3662,11 +3789,16 @@
         </is>
       </c>
       <c r="AP27" t="n">
-        <v>-999</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>04210_stationfile.csv</t>
+          <t>71968_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3808,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0-20000-0-01013</t>
+          <t>0-20000-0-21946</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3686,14 +3818,14 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>1005</v>
+        <v>21946</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ISFJORD RADIO</t>
+          <t>CHOKURDAH</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3702,20 +3834,20 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>13.61916666666667</v>
+        <v>147.8833333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>78.0625</v>
+        <v>70.61666666666666</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1958-05-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1968-04-20</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -3733,7 +3865,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3770,7 +3902,7 @@
         </is>
       </c>
       <c r="AM28" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr">
@@ -3779,11 +3911,16 @@
         </is>
       </c>
       <c r="AP28" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>01005_stationfile.csv</t>
+          <t>21946_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3930,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0-20000-0-23552</t>
+          <t>0-20000-0-25399</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3803,14 +3940,14 @@
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>23552</v>
+        <v>25399</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>TARKO-SALE</t>
+          <t>MYS UELEN</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3819,20 +3956,20 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>77.77083333333333</v>
+        <v>-169.8347222222222</v>
       </c>
       <c r="L29" t="n">
-        <v>64.91138888888889</v>
+        <v>66.16277777777778</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1958-05-03</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1965-08-13</t>
+          <t>1996-04-12</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -3854,7 +3991,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Tarko-Sale</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -3887,18 +4024,25 @@
         </is>
       </c>
       <c r="AM29" t="n">
-        <v>16.2</v>
+        <v>0.8</v>
       </c>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="n">
-        <v>1.7</v>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP29" t="n">
-        <v>27.1</v>
+        <v>7.06</v>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>23552_stationfile.csv</t>
+          <t>25399_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3908,7 +4052,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0-20300-0-23074</t>
+          <t>0-20000-0-23078</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3918,14 +4062,14 @@
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>23074</v>
+        <v>23078</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>DUDINKA</t>
+          <t>NORIL'SK</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3934,20 +4078,20 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>86.17</v>
+        <v>88.26388888888889</v>
       </c>
       <c r="L30" t="n">
-        <v>69.40000000000001</v>
+        <v>69.34722222222221</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1980-02-05</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1992-10-13</t>
+          <t>1996-05-23</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -3969,7 +4113,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Dudinka</t>
+          <t>Norilsk</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -4002,18 +4146,23 @@
         </is>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="AP30" t="n">
-        <v>28</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>23074_stationfile.csv</t>
+          <t>23078_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4172,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0-20000-0-23274</t>
+          <t>0-20300-0-04340</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4033,14 +4182,14 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>23274</v>
+        <v>4340</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>IGARKA</t>
+          <t>KAP TOBIN</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4049,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>86.56666666666666</v>
+        <v>-21.97</v>
       </c>
       <c r="L31" t="n">
-        <v>67.46666666666667</v>
+        <v>70.42</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
@@ -4062,7 +4211,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1992-02-15</t>
+          <t>1980-10-28</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -4080,11 +4229,11 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Dudinka</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -4117,18 +4266,25 @@
         </is>
       </c>
       <c r="AM31" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="n">
-        <v>216.5</v>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP31" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>23274_stationfile.csv</t>
+          <t>04340_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4294,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0-20300-0-04310</t>
+          <t>0-20000-0-71938</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -4148,14 +4304,14 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>4310</v>
+        <v>71938</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NORD</t>
+          <t>KUGLUKTUK A, NU</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4164,20 +4320,20 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-16.67</v>
+        <v>-115.1438888888889</v>
       </c>
       <c r="L32" t="n">
-        <v>81.59999999999999</v>
+        <v>67.81666666666666</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-02</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1996-05-10</t>
+          <t>1970-02-17</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -4195,7 +4351,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -4232,7 +4388,7 @@
         </is>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr">
@@ -4241,11 +4397,16 @@
         </is>
       </c>
       <c r="AP32" t="n">
-        <v>40</v>
+        <v>22.6</v>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>04310_stationfile.csv</t>
+          <t>71938_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4416,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0-20001-0-22522</t>
+          <t>0-20000-0-71090</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -4265,14 +4426,14 @@
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>22522</v>
+        <v>71090</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>KEM'</t>
+          <t>CLYDE RIVER A, NU</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4281,20 +4442,20 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>34.65</v>
+        <v>-68.51694444444445</v>
       </c>
       <c r="L33" t="n">
-        <v>64.95</v>
+        <v>70.48583333333333</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1950-01-01</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1973-05-17</t>
+          <t>1972-11-28</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -4312,11 +4473,11 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Kem</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -4349,18 +4510,25 @@
         </is>
       </c>
       <c r="AM33" t="n">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="n">
-        <v>9.9</v>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP33" t="n">
-        <v>7.5</v>
+        <v>26.5</v>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>22522_stationfile.csv</t>
+          <t>71090_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4538,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0-20000-0-25042</t>
+          <t>0-20000-0-70133</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -4380,14 +4548,14 @@
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>25042</v>
+        <v>70133</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>AJON</t>
+          <t>KOTZEBUE, RALPH WIEN</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4396,20 +4564,20 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>167.9688888888889</v>
+        <v>-162.6133333333333</v>
       </c>
       <c r="L34" t="n">
-        <v>69.91861111111112</v>
+        <v>66.8863888888889</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1962-03-04</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1995-12-09</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -4427,7 +4595,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -4464,7 +4632,7 @@
         </is>
       </c>
       <c r="AM34" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr">
@@ -4473,11 +4641,16 @@
         </is>
       </c>
       <c r="AP34" t="n">
-        <v>13.7</v>
+        <v>5</v>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>25042_stationfile.csv</t>
+          <t>70133_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4660,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0-20000-0-02185</t>
+          <t>0-20000-0-20891</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -4497,14 +4670,14 @@
         <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>2057</v>
+        <v>20891</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>LULEA-KALLAX (2185-0)</t>
+          <t>HATANGA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4513,20 +4686,20 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>22.11444444444444</v>
+        <v>102.4663888888889</v>
       </c>
       <c r="L35" t="n">
-        <v>65.54333333333334</v>
+        <v>71.97722222222222</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1963-08-23</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1977-06-30</t>
+          <t>1996-06-28</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -4544,11 +4717,11 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Lulea</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -4581,18 +4754,25 @@
         </is>
       </c>
       <c r="AM35" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="n">
-        <v>9.6</v>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP35" t="n">
-        <v>17</v>
+        <v>32.8</v>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>02057_stationfile.csv</t>
+          <t>20891_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4602,7 +4782,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0-20000-0-20667</t>
+          <t>0-20000-0-24125</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4612,14 +4792,14 @@
         <v>35</v>
       </c>
       <c r="E36" t="n">
-        <v>20667</v>
+        <v>24125</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>IM. M.V. POPOVA</t>
+          <t>OLENEK (24125-0)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4628,20 +4808,20 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>70.06638888888888</v>
+        <v>112.4333333333333</v>
       </c>
       <c r="L36" t="n">
-        <v>73.33277777777778</v>
+        <v>68.5</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1958-05-03</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1995-02-24</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -4663,7 +4843,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Udachnyy</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -4696,20 +4876,23 @@
         </is>
       </c>
       <c r="AM36" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO36" t="n">
+        <v>232.4</v>
       </c>
       <c r="AP36" t="n">
-        <v>5.6</v>
+        <v>219.54</v>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>20667_stationfile.csv</t>
+          <t>24125_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4902,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0-20000-0-21946</t>
+          <t>0-20300-0-21358</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4729,14 +4912,14 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>21946</v>
+        <v>21358</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CHOKURDAH</t>
+          <t>OSTROV ZOHOVA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4745,20 +4928,20 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>147.8833333333333</v>
+        <v>152.83</v>
       </c>
       <c r="L37" t="n">
-        <v>70.61666666666666</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1993-11-15</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -4813,7 +4996,7 @@
         </is>
       </c>
       <c r="AM37" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr">
@@ -4822,11 +5005,16 @@
         </is>
       </c>
       <c r="AP37" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>21946_stationfile.csv</t>
+          <t>21358_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -4836,7 +5024,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0-20000-0-25399</t>
+          <t>0-20000-0-24266</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4846,14 +5034,14 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>25399</v>
+        <v>24266</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>MYS UELEN</t>
+          <t>VERHOJANSK</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4862,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-169.8347222222222</v>
+        <v>133.4</v>
       </c>
       <c r="L38" t="n">
-        <v>66.16277777777778</v>
+        <v>67.56666666666666</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -4875,7 +5063,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1996-04-12</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -4930,7 +5118,7 @@
         </is>
       </c>
       <c r="AM38" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr">
@@ -4939,11 +5127,16 @@
         </is>
       </c>
       <c r="AP38" t="n">
-        <v>7.06</v>
+        <v>136.24</v>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>25399_stationfile.csv</t>
+          <t>24266_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4953,7 +5146,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0-20300-0-04340</t>
+          <t>0-20300-0-21504</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4963,14 +5156,14 @@
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>4340</v>
+        <v>21504</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>KAP TOBIN</t>
+          <t>OSTROV PREOBRAZHENIA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -4979,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>-21.97</v>
+        <v>112.93</v>
       </c>
       <c r="L39" t="n">
-        <v>70.42</v>
+        <v>74.67</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -4992,7 +5185,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1980-10-28</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -5010,7 +5203,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -5056,11 +5249,16 @@
         </is>
       </c>
       <c r="AP39" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>04340_stationfile.csv</t>
+          <t>21504_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5268,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0-20000-0-25400</t>
+          <t>0-20000-0-25123</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -5080,14 +5278,14 @@
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>25400</v>
+        <v>25123</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ZYRYANKA (25400-0)</t>
+          <t>CHERSKIJ</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5096,15 +5294,15 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>150.9</v>
+        <v>161.2833333333333</v>
       </c>
       <c r="L40" t="n">
-        <v>65.73333333333333</v>
+        <v>68.75</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1963-04-11</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5164,7 +5362,7 @@
         </is>
       </c>
       <c r="AM40" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr">
@@ -5173,11 +5371,16 @@
         </is>
       </c>
       <c r="AP40" t="n">
-        <v>42.9</v>
+        <v>28</v>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>25400_stationfile.csv</t>
+          <t>25123_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5390,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0-20000-0-20107</t>
+          <t>0-20000-0-04339</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -5197,14 +5400,14 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>20107</v>
+        <v>4339</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>BARENTSBURG</t>
+          <t>ITTOQQORTOORMIIT (SCORESBYSUND)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5213,20 +5416,20 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>14.22111111111111</v>
+        <v>-21.95111111111111</v>
       </c>
       <c r="L41" t="n">
-        <v>78.05555555555556</v>
+        <v>70.48444444444445</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1980-10-25</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1995-01-27</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -5244,7 +5447,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -5281,7 +5484,7 @@
         </is>
       </c>
       <c r="AM41" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr">
@@ -5290,11 +5493,16 @@
         </is>
       </c>
       <c r="AP41" t="n">
-        <v>75.8</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>20107_stationfile.csv</t>
+          <t>04339_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5304,7 +5512,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0-20300-0-23146</t>
+          <t>0-20300-0-21647</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -5314,14 +5522,14 @@
         <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>23146</v>
+        <v>21647</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MYS KAMENNY</t>
+          <t>MYS SHALAUROVA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5330,10 +5538,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>73.59999999999999</v>
+        <v>143.533</v>
       </c>
       <c r="L42" t="n">
-        <v>68.47</v>
+        <v>73.2</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -5343,7 +5551,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1995-04-04</t>
+          <t>1995-12-29</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -5365,7 +5573,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Pangody</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -5398,18 +5606,25 @@
         </is>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="n">
-        <v>289.7</v>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>23146_stationfile.csv</t>
+          <t>21647_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5634,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0-20000-0-71090</t>
+          <t>0-20000-0-20674</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -5429,14 +5644,14 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>71090</v>
+        <v>20674</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CLYDE RIVER A, NU</t>
+          <t>OSTROV DIKSON</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5445,20 +5660,20 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-68.51694444444445</v>
+        <v>80.4063888888889</v>
       </c>
       <c r="L43" t="n">
-        <v>70.48583333333333</v>
+        <v>73.51361111111112</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1950-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1972-11-28</t>
+          <t>1996-07-05</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -5476,7 +5691,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -5513,7 +5728,7 @@
         </is>
       </c>
       <c r="AM43" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr">
@@ -5522,11 +5737,16 @@
         </is>
       </c>
       <c r="AP43" t="n">
-        <v>26.5</v>
+        <v>46.37</v>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>71090_stationfile.csv</t>
+          <t>20674_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5756,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0-20000-0-70133</t>
+          <t>0-20000-0-02185</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -5546,14 +5766,14 @@
         <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>70133</v>
+        <v>2185</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>KOTZEBUE, RALPH WIEN</t>
+          <t>LULEA-KALLAX (2185-0)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5562,15 +5782,15 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-162.6133333333333</v>
+        <v>22.11444444444444</v>
       </c>
       <c r="L44" t="n">
-        <v>66.8863888888889</v>
+        <v>65.54333333333334</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1962-03-04</t>
+          <t>1977-08-05</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5593,11 +5813,11 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Lulea</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -5630,20 +5850,23 @@
         </is>
       </c>
       <c r="AM44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO44" t="n">
+        <v>3.8</v>
       </c>
       <c r="AP44" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>70133_stationfile.csv</t>
+          <t>02185_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5876,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0-20000-0-20891</t>
+          <t>0-20300-0-21965</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -5663,14 +5886,14 @@
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>20891</v>
+        <v>21965</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>HATANGA</t>
+          <t>OSTROV CHETYREKHSTOLBO</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5679,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>102.4663888888889</v>
+        <v>162.4</v>
       </c>
       <c r="L45" t="n">
-        <v>71.97722222222222</v>
+        <v>70.63</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -5692,7 +5915,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1996-06-28</t>
+          <t>1996-05-27</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -5747,7 +5970,7 @@
         </is>
       </c>
       <c r="AM45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr">
@@ -5756,11 +5979,16 @@
         </is>
       </c>
       <c r="AP45" t="n">
-        <v>32.8</v>
+        <v>38</v>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>20891_stationfile.csv</t>
+          <t>21965_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -5770,7 +5998,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0-20300-0-20274</t>
+          <t>0-20000-0-22271</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -5780,14 +6008,14 @@
         <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>20274</v>
+        <v>22271</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>OSTROV UEDINENIA</t>
+          <t>SHOJNA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -5796,20 +6024,20 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.23</v>
+        <v>44.17416666666666</v>
       </c>
       <c r="L46" t="n">
-        <v>77.5</v>
+        <v>67.87666666666667</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1963-07-22</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1996-01-03</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -5831,7 +6059,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Arkhangelsk</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -5864,20 +6092,23 @@
         </is>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO46" t="n">
+        <v>397.2</v>
       </c>
       <c r="AP46" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>20274_stationfile.csv</t>
+          <t>22271_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5887,7 +6118,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0-20000-0-20069</t>
+          <t>0-20000-0-21982</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -5897,14 +6128,14 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>20069</v>
+        <v>21982</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>OSTROV VIZE</t>
+          <t>OSTROV VRANGELJA</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5913,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>76.98055555555555</v>
+        <v>-178.65</v>
       </c>
       <c r="L47" t="n">
-        <v>79.49083333333333</v>
+        <v>70.98333333333333</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -5926,7 +6157,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1996-04-22</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -5981,7 +6212,7 @@
         </is>
       </c>
       <c r="AM47" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr">
@@ -5990,11 +6221,16 @@
         </is>
       </c>
       <c r="AP47" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>20069_stationfile.csv</t>
+          <t>21982_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6004,7 +6240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0-20000-0-24266</t>
+          <t>0-20000-0-21432</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -6014,14 +6250,14 @@
         <v>47</v>
       </c>
       <c r="E48" t="n">
-        <v>24266</v>
+        <v>21432</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>VERHOJANSK</t>
+          <t>OSTROV KOTEL'NYJ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6030,10 +6266,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>133.4</v>
+        <v>137.8666666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>67.56666666666666</v>
+        <v>76</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -6098,7 +6334,7 @@
         </is>
       </c>
       <c r="AM48" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr">
@@ -6107,11 +6343,16 @@
         </is>
       </c>
       <c r="AP48" t="n">
-        <v>136.24</v>
+        <v>14.9</v>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>24266_stationfile.csv</t>
+          <t>21432_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6362,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0-20001-0-20744</t>
+          <t>0-20000-0-24343</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -6131,14 +6372,14 @@
         <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>20744</v>
+        <v>24343</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MALYE KARMAKULY (20744-1)</t>
+          <t>ZHIGANSK</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6147,10 +6388,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>52.7</v>
+        <v>123.4</v>
       </c>
       <c r="L49" t="n">
-        <v>72.36666666666666</v>
+        <v>66.76666666666667</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -6182,7 +6423,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Naryan-Mar</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -6215,18 +6456,25 @@
         </is>
       </c>
       <c r="AM49" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="n">
-        <v>527.6</v>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP49" t="n">
-        <v>14.7</v>
+        <v>92.36</v>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>20744_stationfile.csv</t>
+          <t>24343_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6484,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0-20300-0-21504</t>
+          <t>0-20000-0-20292</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -6246,14 +6494,14 @@
         <v>49</v>
       </c>
       <c r="E50" t="n">
-        <v>21504</v>
+        <v>20292</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>OSTROV PREOBRAZHENIA</t>
+          <t>GMO IM.E.K. FEDOROVA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6262,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>112.93</v>
+        <v>104.2919444444444</v>
       </c>
       <c r="L50" t="n">
-        <v>74.67</v>
+        <v>77.71305555555556</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -6275,7 +6523,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-05-11</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -6330,7 +6578,7 @@
         </is>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr">
@@ -6339,11 +6587,16 @@
         </is>
       </c>
       <c r="AP50" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>21504_stationfile.csv</t>
+          <t>20292_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6353,7 +6606,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0-20000-0-22217</t>
+          <t>0-20000-0-21824</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -6363,14 +6616,14 @@
         <v>50</v>
       </c>
       <c r="E51" t="n">
-        <v>22217</v>
+        <v>21824</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>KANDALAKSHA</t>
+          <t>TIKSI</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6379,10 +6632,10 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>32.35416666666667</v>
+        <v>128.9166666666667</v>
       </c>
       <c r="L51" t="n">
-        <v>67.16916666666667</v>
+        <v>71.58333333333333</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -6392,7 +6645,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1996-06-25</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -6414,7 +6667,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Kandalaksha</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -6447,18 +6700,25 @@
         </is>
       </c>
       <c r="AM51" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="n">
-        <v>4.7</v>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP51" t="n">
-        <v>25.4</v>
+        <v>7</v>
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>22217_stationfile.csv</t>
+          <t>21824_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6728,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0-20000-0-25123</t>
+          <t>0-20000-0-04220</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -6478,14 +6738,14 @@
         <v>51</v>
       </c>
       <c r="E52" t="n">
-        <v>25123</v>
+        <v>4220</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CHERSKIJ</t>
+          <t>AASIAAT (EGEDESMINDE)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6494,10 +6754,10 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>161.2833333333333</v>
+        <v>-52.85166666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>68.75</v>
+        <v>68.70805555555556</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -6525,7 +6785,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -6562,7 +6822,7 @@
         </is>
       </c>
       <c r="AM52" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr">
@@ -6571,11 +6831,16 @@
         </is>
       </c>
       <c r="AP52" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>25123_stationfile.csv</t>
+          <t>04220_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6850,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0-20000-0-24125</t>
+          <t>0-20300-0-25173</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -6595,14 +6860,14 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>24125</v>
+        <v>25173</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>OLENEK (24125-0)</t>
+          <t>MYS SHMIDTA</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6611,10 +6876,10 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>112.4333333333333</v>
+        <v>-179.48</v>
       </c>
       <c r="L53" t="n">
-        <v>68.5</v>
+        <v>68.92</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -6646,7 +6911,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Udachnyy</t>
+          <t>Anadyr</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -6679,18 +6944,23 @@
         </is>
       </c>
       <c r="AM53" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="n">
-        <v>232.4</v>
+        <v>483.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>219.54</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
-          <t>24125_stationfile.csv</t>
+          <t>25173_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR53" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6970,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0-20000-0-20046</t>
+          <t>0-20000-0-04320</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -6710,14 +6980,14 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>20046</v>
+        <v>4320</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>POLARGMO IM. E.T. KRENKELJA</t>
+          <t>DANMARKSHAVN</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -6726,15 +6996,15 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>58.05888888888889</v>
+        <v>-18.66805555555556</v>
       </c>
       <c r="L54" t="n">
-        <v>80.62638888888888</v>
+        <v>76.76944444444445</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6757,7 +7027,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -6794,7 +7064,7 @@
         </is>
       </c>
       <c r="AM54" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr">
@@ -6803,11 +7073,16 @@
         </is>
       </c>
       <c r="AP54" t="n">
-        <v>24.66</v>
+        <v>12</v>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>20046_stationfile.csv</t>
+          <t>04320_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6817,7 +7092,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0-20000-0-21982</t>
+          <t>0-20001-0-01028</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -6827,14 +7102,14 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>21982</v>
+        <v>1028</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>OSTROV VRANGELJA</t>
+          <t>BJORNOYA (1028-1)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -6843,15 +7118,15 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>-178.65</v>
+        <v>19.00111111111111</v>
       </c>
       <c r="L55" t="n">
-        <v>70.98333333333333</v>
+        <v>74.50388888888889</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6874,11 +7149,11 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -6911,20 +7186,23 @@
         </is>
       </c>
       <c r="AM55" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="AN55" t="inlineStr"/>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO55" t="n">
+        <v>526.7</v>
       </c>
       <c r="AP55" t="n">
-        <v>4.6</v>
+        <v>18</v>
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>21982_stationfile.csv</t>
+          <t>01028_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR55" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6934,7 +7212,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0-20000-0-20674</t>
+          <t>0-20000-0-71074</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -6944,14 +7222,14 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>20674</v>
+        <v>71074</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>OSTROV DIKSON</t>
+          <t>ISACHSEN (AUT), NU</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -6960,20 +7238,20 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>80.4063888888889</v>
+        <v>-103.5544444444444</v>
       </c>
       <c r="L56" t="n">
-        <v>73.51361111111112</v>
+        <v>78.79222222222222</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-08-18</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>1996-07-05</t>
+          <t>1978-06-19</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -6991,7 +7269,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -7028,7 +7306,7 @@
         </is>
       </c>
       <c r="AM56" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr">
@@ -7037,11 +7315,16 @@
         </is>
       </c>
       <c r="AP56" t="n">
-        <v>46.37</v>
+        <v>58</v>
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
-          <t>20674_stationfile.csv</t>
+          <t>71074_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR56" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7334,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0-20000-0-22271</t>
+          <t>0-20000-0-04360</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -7061,14 +7344,14 @@
         <v>56</v>
       </c>
       <c r="E57" t="n">
-        <v>22271</v>
+        <v>4360</v>
       </c>
       <c r="F57" t="n">
         <v>3</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>SHOJNA</t>
+          <t>TASIILAQ (AMMASSALIK)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -7077,15 +7360,15 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>44.17416666666666</v>
+        <v>-37.63666666666666</v>
       </c>
       <c r="L57" t="n">
-        <v>67.87666666666667</v>
+        <v>65.6111111111111</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1963-07-22</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7108,11 +7391,11 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Arkhangelsk</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -7145,18 +7428,25 @@
         </is>
       </c>
       <c r="AM57" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="n">
-        <v>397.2</v>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP57" t="n">
-        <v>8</v>
+        <v>55.93</v>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>22271_stationfile.csv</t>
+          <t>04360_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR57" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7166,7 +7456,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0-20000-0-21432</t>
+          <t>0-20300-0-71051</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -7176,14 +7466,14 @@
         <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>21432</v>
+        <v>71051</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>OSTROV KOTEL'NYJ</t>
+          <t>SACHS HARBOUR</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7192,20 +7482,20 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>137.8666666666667</v>
+        <v>-125.27</v>
       </c>
       <c r="L58" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1955-11-01</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1992-03-21</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -7223,7 +7513,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -7260,7 +7550,7 @@
         </is>
       </c>
       <c r="AM58" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr">
@@ -7269,11 +7559,16 @@
         </is>
       </c>
       <c r="AP58" t="n">
-        <v>14.9</v>
+        <v>84</v>
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
-          <t>21432_stationfile.csv</t>
+          <t>71051_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -7283,7 +7578,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0-20300-0-21647</t>
+          <t>0-20001-0-71925</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -7293,14 +7588,14 @@
         <v>58</v>
       </c>
       <c r="E59" t="n">
-        <v>21647</v>
+        <v>71925</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>MYS SHALAUROVA</t>
+          <t>CAMBRIDGE BAY UA, NU</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -7309,20 +7604,20 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>143.533</v>
+        <v>-105.0666666666667</v>
       </c>
       <c r="L59" t="n">
-        <v>73.2</v>
+        <v>69.13333333333334</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1962-03-04</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>1995-12-29</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -7340,7 +7635,7 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -7377,7 +7672,7 @@
         </is>
       </c>
       <c r="AM59" t="n">
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr">
@@ -7386,11 +7681,16 @@
         </is>
       </c>
       <c r="AP59" t="n">
-        <v>23</v>
+        <v>31.09</v>
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
-          <t>21647_stationfile.csv</t>
+          <t>71925_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR59" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7400,7 +7700,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0-20000-0-24343</t>
+          <t>0-20000-0-70086</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -7410,14 +7710,14 @@
         <v>59</v>
       </c>
       <c r="E60" t="n">
-        <v>24343</v>
+        <v>70086</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ZHIGANSK</t>
+          <t>BARTER ISLAND</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -7426,20 +7726,20 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>123.4</v>
+        <v>-143.6333333333333</v>
       </c>
       <c r="L60" t="n">
-        <v>66.76666666666667</v>
+        <v>70.13333333333334</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1953-04-04</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1989-06-21</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -7457,7 +7757,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -7503,11 +7803,16 @@
         </is>
       </c>
       <c r="AP60" t="n">
-        <v>92.36</v>
+        <v>11.9</v>
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>24343_stationfile.csv</t>
+          <t>70086_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7517,7 +7822,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0-20300-0-21965</t>
+          <t>0-20001-0-71957</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -7527,14 +7832,14 @@
         <v>60</v>
       </c>
       <c r="E61" t="n">
-        <v>21965</v>
+        <v>71957</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>OSTROV CHETYREKHSTOLBO</t>
+          <t>INUVIK UA, NWT</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -7543,20 +7848,20 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>162.4</v>
+        <v>-133.5166666666667</v>
       </c>
       <c r="L61" t="n">
-        <v>70.63</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1960-09-12</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>1996-05-27</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -7574,7 +7879,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -7611,7 +7916,7 @@
         </is>
       </c>
       <c r="AM61" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr">
@@ -7620,11 +7925,16 @@
         </is>
       </c>
       <c r="AP61" t="n">
-        <v>38</v>
+        <v>67.67</v>
       </c>
       <c r="AQ61" t="inlineStr">
         <is>
-          <t>21965_stationfile.csv</t>
+          <t>71957_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7944,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0-20000-0-20292</t>
+          <t>0-20001-0-71081</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -7644,14 +7954,14 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>20292</v>
+        <v>71081</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>GMO IM.E.K. FEDOROVA</t>
+          <t>HALL BEACH UA, NU</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -7660,20 +7970,20 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>104.2919444444444</v>
+        <v>-81.21666666666667</v>
       </c>
       <c r="L62" t="n">
-        <v>77.71305555555556</v>
+        <v>68.76666666666667</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1957-08-01</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>1996-05-11</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -7691,7 +8001,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -7728,7 +8038,7 @@
         </is>
       </c>
       <c r="AM62" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr">
@@ -7737,11 +8047,16 @@
         </is>
       </c>
       <c r="AP62" t="n">
-        <v>15</v>
+        <v>5.9</v>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>20292_stationfile.csv</t>
+          <t>71081_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7751,7 +8066,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0-20000-0-23330</t>
+          <t>0-20000-0-04202</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -7761,14 +8076,14 @@
         <v>62</v>
       </c>
       <c r="E63" t="n">
-        <v>23330</v>
+        <v>4202</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>SALEHARD</t>
+          <t>PITUFFIK (THULE AIR BASE)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -7777,15 +8092,15 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>66.67444444444445</v>
+        <v>-68.75</v>
       </c>
       <c r="L63" t="n">
-        <v>66.53194444444445</v>
+        <v>76.53333333333333</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1952-08-01</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -7808,11 +8123,11 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Salekhard</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -7845,18 +8160,25 @@
         </is>
       </c>
       <c r="AM63" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="AN63" t="inlineStr"/>
-      <c r="AO63" t="n">
-        <v>3.2</v>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP63" t="n">
-        <v>16.3</v>
+        <v>77</v>
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
-          <t>23330_stationfile.csv</t>
+          <t>04202_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7866,7 +8188,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0-20000-0-23022</t>
+          <t>0-20000-0-70026</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -7876,14 +8198,14 @@
         <v>63</v>
       </c>
       <c r="E64" t="n">
-        <v>23022</v>
+        <v>70026</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>AMDERMA</t>
+          <t>BARROW/W. POST W. ROGERS</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -7892,15 +8214,15 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>61.65777777777777</v>
+        <v>-156.7833333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>69.78333333333333</v>
+        <v>71.28888888888889</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -7923,11 +8245,11 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Severnyy</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -7960,18 +8282,25 @@
         </is>
       </c>
       <c r="AM64" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AN64" t="inlineStr"/>
-      <c r="AO64" t="n">
-        <v>256.7</v>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP64" t="n">
-        <v>47.68</v>
+        <v>11.9</v>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
-          <t>23022_stationfile.csv</t>
+          <t>70026_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7981,7 +8310,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0-20000-0-23205</t>
+          <t>0-20001-0-71082</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -7991,14 +8320,14 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>23205</v>
+        <v>71082</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NAR'JAN-MAR</t>
+          <t>ALERT UA, NU</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8007,15 +8336,15 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>53.0175</v>
+        <v>-62.33333333333334</v>
       </c>
       <c r="L65" t="n">
-        <v>67.625</v>
+        <v>82.5</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1950-09-10</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8038,11 +8367,11 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Naryan-Mar</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -8075,18 +8404,25 @@
         </is>
       </c>
       <c r="AM65" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AN65" t="inlineStr"/>
-      <c r="AO65" t="n">
-        <v>1.3</v>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP65" t="n">
-        <v>11.75</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>23205_stationfile.csv</t>
+          <t>71082_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR65" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -8096,7 +8432,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0-20000-0-21824</t>
+          <t>0-20001-0-71043</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -8106,14 +8442,14 @@
         <v>65</v>
       </c>
       <c r="E66" t="n">
-        <v>21824</v>
+        <v>71043</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>TIKSI</t>
+          <t>NORMAN WELLS UA, NWT</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8122,15 +8458,15 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>128.9166666666667</v>
+        <v>-126.75</v>
       </c>
       <c r="L66" t="n">
-        <v>71.58333333333333</v>
+        <v>65.28333333333333</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1955-07-01</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8153,7 +8489,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -8190,7 +8526,7 @@
         </is>
       </c>
       <c r="AM66" t="n">
-        <v>5.7</v>
+        <v>0.4</v>
       </c>
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr">
@@ -8199,11 +8535,16 @@
         </is>
       </c>
       <c r="AP66" t="n">
-        <v>7</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
-          <t>21824_stationfile.csv</t>
+          <t>71043_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR66" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -8213,7 +8554,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0-20000-0-04220</t>
+          <t>0-20001-0-71917</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -8223,14 +8564,14 @@
         <v>66</v>
       </c>
       <c r="E67" t="n">
-        <v>4220</v>
+        <v>71917</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>AASIAAT (EGEDESMINDE)</t>
+          <t>EUREKA UA, NU</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8239,15 +8580,15 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>-52.85166666666667</v>
+        <v>-85.93333333333334</v>
       </c>
       <c r="L67" t="n">
-        <v>68.70805555555556</v>
+        <v>79.98333333333333</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8270,7 +8611,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -8307,7 +8648,7 @@
         </is>
       </c>
       <c r="AM67" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr">
@@ -8316,11 +8657,16 @@
         </is>
       </c>
       <c r="AP67" t="n">
-        <v>41</v>
+        <v>10.4</v>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>04220_stationfile.csv</t>
+          <t>71917_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR67" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8676,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0-20000-0-04360</t>
+          <t>0-20300-0-71072</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -8340,14 +8686,14 @@
         <v>67</v>
       </c>
       <c r="E68" t="n">
-        <v>4360</v>
+        <v>71072</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>TASIILAQ (AMMASSALIK)</t>
+          <t>MOULD BAY</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8356,15 +8702,15 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>-37.63666666666666</v>
+        <v>-119.35</v>
       </c>
       <c r="L68" t="n">
-        <v>65.6111111111111</v>
+        <v>76.25</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-06-06</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8387,7 +8733,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -8424,7 +8770,7 @@
         </is>
       </c>
       <c r="AM68" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr">
@@ -8433,11 +8779,16 @@
         </is>
       </c>
       <c r="AP68" t="n">
-        <v>55.93</v>
+        <v>58</v>
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>04360_stationfile.csv</t>
+          <t>71072_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -8447,7 +8798,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0-20000-0-01152</t>
+          <t>0-20001-0-71924</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -8457,14 +8808,14 @@
         <v>68</v>
       </c>
       <c r="E69" t="n">
-        <v>1152</v>
+        <v>71924</v>
       </c>
       <c r="F69" t="n">
         <v>3</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BODO VI</t>
+          <t>RESOLUTE UA, NU</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -8473,15 +8824,15 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>14.35861111111111</v>
+        <v>-94.96805555555557</v>
       </c>
       <c r="L69" t="n">
-        <v>67.26694444444445</v>
+        <v>74.70416666666667</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8504,11 +8855,11 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Bodo</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -8541,18 +8892,25 @@
         </is>
       </c>
       <c r="AM69" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AN69" t="inlineStr"/>
-      <c r="AO69" t="n">
-        <v>2.7</v>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP69" t="n">
-        <v>12.8</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="AQ69" t="inlineStr">
         <is>
-          <t>01152_stationfile.csv</t>
+          <t>71924_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8920,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0-20000-0-23415</t>
+          <t>0-20000-0-23274</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -8572,14 +8930,14 @@
         <v>69</v>
       </c>
       <c r="E70" t="n">
-        <v>23418</v>
+        <v>23274</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PECHORA (23415-0)</t>
+          <t>IGARKA</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -8588,10 +8946,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>57.1</v>
+        <v>86.56666666666666</v>
       </c>
       <c r="L70" t="n">
-        <v>65.11666666666666</v>
+        <v>67.46666666666667</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
@@ -8601,7 +8959,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1992-02-15</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -8623,7 +8981,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Pechora</t>
+          <t>Dudinka</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -8660,14 +9018,19 @@
       </c>
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="n">
-        <v>6.6</v>
+        <v>216.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>23418_stationfile.csv</t>
+          <t>23274_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR70" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -8677,7 +9040,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0-20001-0-01028</t>
+          <t>0-20000-0-02185</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -8687,14 +9050,14 @@
         <v>70</v>
       </c>
       <c r="E71" t="n">
-        <v>1028</v>
+        <v>2057</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>BJORNOYA (1028-1)</t>
+          <t>LULEA-KALLAX (2185-0)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -8703,20 +9066,20 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>19.00111111111111</v>
+        <v>22.11444444444444</v>
       </c>
       <c r="L71" t="n">
-        <v>74.50388888888889</v>
+        <v>65.54333333333334</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1963-08-23</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1977-06-30</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -8734,11 +9097,11 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Lulea</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
@@ -8771,18 +9134,23 @@
         </is>
       </c>
       <c r="AM71" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="n">
-        <v>526.7</v>
+        <v>9.6</v>
       </c>
       <c r="AP71" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>01028_stationfile.csv</t>
+          <t>02057_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR71" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -8792,7 +9160,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0-20300-0-71051</t>
+          <t>0-20000-0-20667</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -8802,14 +9170,14 @@
         <v>71</v>
       </c>
       <c r="E72" t="n">
-        <v>71051</v>
+        <v>20667</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>SACHS HARBOUR</t>
+          <t>IM. M.V. POPOVA</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -8818,20 +9186,20 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>-125.27</v>
+        <v>70.06638888888888</v>
       </c>
       <c r="L72" t="n">
-        <v>72</v>
+        <v>73.33277777777778</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>1955-11-01</t>
+          <t>1958-05-03</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>1992-03-21</t>
+          <t>1995-02-24</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -8849,7 +9217,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -8886,7 +9254,7 @@
         </is>
       </c>
       <c r="AM72" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr">
@@ -8895,11 +9263,16 @@
         </is>
       </c>
       <c r="AP72" t="n">
-        <v>84</v>
+        <v>5.6</v>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>71051_stationfile.csv</t>
+          <t>20667_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR72" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -8909,7 +9282,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0-20000-0-22113</t>
+          <t>0-20000-0-25400</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -8919,14 +9292,14 @@
         <v>72</v>
       </c>
       <c r="E73" t="n">
-        <v>22113</v>
+        <v>25400</v>
       </c>
       <c r="F73" t="n">
         <v>3</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MURMANSK (22113-0)</t>
+          <t>ZYRYANKA (25400-0)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -8935,15 +9308,15 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>33.04277777777778</v>
+        <v>150.9</v>
       </c>
       <c r="L73" t="n">
-        <v>68.95583333333333</v>
+        <v>65.73333333333333</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1963-04-11</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -8970,7 +9343,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Murmansk</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
@@ -9003,18 +9376,25 @@
         </is>
       </c>
       <c r="AM73" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="n">
-        <v>2</v>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP73" t="n">
-        <v>50.6</v>
+        <v>42.9</v>
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
-          <t>22113_stationfile.csv</t>
+          <t>25400_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR73" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9404,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0-20000-0-04320</t>
+          <t>0-20000-0-20107</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -9034,14 +9414,14 @@
         <v>73</v>
       </c>
       <c r="E74" t="n">
-        <v>4320</v>
+        <v>20107</v>
       </c>
       <c r="F74" t="n">
         <v>3</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>DANMARKSHAVN</t>
+          <t>BARENTSBURG</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9050,20 +9430,20 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>-18.66805555555556</v>
+        <v>14.22111111111111</v>
       </c>
       <c r="L74" t="n">
-        <v>76.76944444444445</v>
+        <v>78.05555555555556</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1995-01-27</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -9081,7 +9461,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -9118,7 +9498,7 @@
         </is>
       </c>
       <c r="AM74" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr">
@@ -9127,11 +9507,16 @@
         </is>
       </c>
       <c r="AP74" t="n">
-        <v>12</v>
+        <v>75.8</v>
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
-          <t>04320_stationfile.csv</t>
+          <t>20107_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR74" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9526,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0-20000-0-23472</t>
+          <t>0-20300-0-23146</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -9151,14 +9536,14 @@
         <v>74</v>
       </c>
       <c r="E75" t="n">
-        <v>23472</v>
+        <v>23146</v>
       </c>
       <c r="F75" t="n">
         <v>3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>TURUHANSK</t>
+          <t>MYS KAMENNY</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9167,10 +9552,10 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>87.98888888888889</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L75" t="n">
-        <v>65.79444444444444</v>
+        <v>68.47</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -9180,7 +9565,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1995-04-04</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -9202,7 +9587,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Norilsk</t>
+          <t>Pangody</t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
@@ -9235,18 +9620,23 @@
         </is>
       </c>
       <c r="AM75" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="n">
-        <v>398.7</v>
+        <v>289.7</v>
       </c>
       <c r="AP75" t="n">
-        <v>37.84</v>
+        <v>2</v>
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
-          <t>23472_stationfile.csv</t>
+          <t>23146_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR75" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9646,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0-20300-0-25173</t>
+          <t>0-20001-0-20744</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -9266,14 +9656,14 @@
         <v>75</v>
       </c>
       <c r="E76" t="n">
-        <v>25173</v>
+        <v>20744</v>
       </c>
       <c r="F76" t="n">
         <v>3</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>MYS SHMIDTA</t>
+          <t>MALYE KARMAKULY (20744-1)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -9282,15 +9672,15 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>-179.48</v>
+        <v>52.7</v>
       </c>
       <c r="L76" t="n">
-        <v>68.92</v>
+        <v>72.36666666666666</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9317,7 +9707,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Anadyr</t>
+          <t>Naryan-Mar</t>
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
@@ -9350,18 +9740,23 @@
         </is>
       </c>
       <c r="AM76" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="n">
-        <v>483.4</v>
+        <v>527.6</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>14.7</v>
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
-          <t>25173_stationfile.csv</t>
+          <t>20744_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR76" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9766,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0-20001-0-71957</t>
+          <t>0-20300-0-20274</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -9381,14 +9776,14 @@
         <v>76</v>
       </c>
       <c r="E77" t="n">
-        <v>71957</v>
+        <v>20274</v>
       </c>
       <c r="F77" t="n">
         <v>3</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>INUVIK UA, NWT</t>
+          <t>OSTROV UEDINENIA</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -9397,20 +9792,20 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>-133.5166666666667</v>
+        <v>82.23</v>
       </c>
       <c r="L77" t="n">
-        <v>68.31666666666666</v>
+        <v>77.5</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1960-09-12</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-01-03</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -9428,7 +9823,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -9465,7 +9860,7 @@
         </is>
       </c>
       <c r="AM77" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr">
@@ -9474,11 +9869,16 @@
         </is>
       </c>
       <c r="AP77" t="n">
-        <v>67.67</v>
+        <v>23</v>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>71957_stationfile.csv</t>
+          <t>20274_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR77" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -9488,7 +9888,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0-20000-0-70086</t>
+          <t>0-20000-0-20069</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -9498,14 +9898,14 @@
         <v>77</v>
       </c>
       <c r="E78" t="n">
-        <v>70086</v>
+        <v>20069</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BARTER ISLAND</t>
+          <t>OSTROV VIZE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -9514,20 +9914,20 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>-143.6333333333333</v>
+        <v>76.98055555555555</v>
       </c>
       <c r="L78" t="n">
-        <v>70.13333333333334</v>
+        <v>79.49083333333333</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1953-04-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>1989-06-21</t>
+          <t>1996-04-22</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -9545,7 +9945,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -9582,7 +9982,7 @@
         </is>
       </c>
       <c r="AM78" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr">
@@ -9591,11 +9991,16 @@
         </is>
       </c>
       <c r="AP78" t="n">
-        <v>11.9</v>
+        <v>10</v>
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>70086_stationfile.csv</t>
+          <t>20069_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR78" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -9605,7 +10010,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0-20001-0-71081</t>
+          <t>0-20000-0-22217</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -9615,14 +10020,14 @@
         <v>78</v>
       </c>
       <c r="E79" t="n">
-        <v>71081</v>
+        <v>22217</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>HALL BEACH UA, NU</t>
+          <t>KANDALAKSHA</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -9631,20 +10036,20 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>-81.21666666666667</v>
+        <v>32.35416666666667</v>
       </c>
       <c r="L79" t="n">
-        <v>68.76666666666667</v>
+        <v>67.16916666666667</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>1957-08-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-06-25</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -9662,11 +10067,11 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kandalaksha</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
@@ -9699,20 +10104,23 @@
         </is>
       </c>
       <c r="AM79" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO79" t="n">
+        <v>4.7</v>
       </c>
       <c r="AP79" t="n">
-        <v>5.9</v>
+        <v>25.4</v>
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
-          <t>71081_stationfile.csv</t>
+          <t>22217_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR79" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -9722,7 +10130,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0-20001-0-71925</t>
+          <t>0-20000-0-20046</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -9732,14 +10140,14 @@
         <v>79</v>
       </c>
       <c r="E80" t="n">
-        <v>71925</v>
+        <v>20046</v>
       </c>
       <c r="F80" t="n">
         <v>3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CAMBRIDGE BAY UA, NU</t>
+          <t>POLARGMO IM. E.T. KRENKELJA</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -9748,15 +10156,15 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>-105.0666666666667</v>
+        <v>58.05888888888889</v>
       </c>
       <c r="L80" t="n">
-        <v>69.13333333333334</v>
+        <v>80.62638888888888</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1962-03-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -9779,7 +10187,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -9816,7 +10224,7 @@
         </is>
       </c>
       <c r="AM80" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr">
@@ -9825,11 +10233,16 @@
         </is>
       </c>
       <c r="AP80" t="n">
-        <v>31.09</v>
+        <v>24.66</v>
       </c>
       <c r="AQ80" t="inlineStr">
         <is>
-          <t>71925_stationfile.csv</t>
+          <t>20046_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR80" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -9839,7 +10252,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0-20000-0-02836</t>
+          <t>0-20000-0-23022</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -9849,14 +10262,14 @@
         <v>80</v>
       </c>
       <c r="E81" t="n">
-        <v>2836</v>
+        <v>23022</v>
       </c>
       <c r="F81" t="n">
         <v>3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>SODANKYLA ARCTIC RESEARCH CENTRE</t>
+          <t>AMDERMA</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -9865,10 +10278,10 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>26.62888888888889</v>
+        <v>61.65777777777777</v>
       </c>
       <c r="L81" t="n">
-        <v>67.36666666666666</v>
+        <v>69.78333333333333</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
@@ -9896,11 +10309,11 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Rovaniemi</t>
+          <t>Severnyy</t>
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
@@ -9933,18 +10346,23 @@
         </is>
       </c>
       <c r="AM81" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="n">
-        <v>105.3</v>
+        <v>256.7</v>
       </c>
       <c r="AP81" t="n">
-        <v>179.3</v>
+        <v>47.68</v>
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
-          <t>02836_stationfile.csv</t>
+          <t>23022_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -9954,7 +10372,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0-20000-0-04202</t>
+          <t>0-20000-0-23330</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -9964,14 +10382,14 @@
         <v>81</v>
       </c>
       <c r="E82" t="n">
-        <v>4202</v>
+        <v>23330</v>
       </c>
       <c r="F82" t="n">
         <v>3</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PITUFFIK (THULE AIR BASE)</t>
+          <t>SALEHARD</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -9980,15 +10398,15 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>-68.75</v>
+        <v>66.67444444444445</v>
       </c>
       <c r="L82" t="n">
-        <v>76.53333333333333</v>
+        <v>66.53194444444445</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1952-08-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -10011,11 +10429,11 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Salekhard</t>
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
@@ -10048,20 +10466,23 @@
         </is>
       </c>
       <c r="AM82" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="AN82" t="inlineStr"/>
-      <c r="AO82" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO82" t="n">
+        <v>3.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>77</v>
+        <v>16.3</v>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>04202_stationfile.csv</t>
+          <t>23330_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR82" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10492,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0-20000-0-70026</t>
+          <t>0-20000-0-01152</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -10081,14 +10502,14 @@
         <v>82</v>
       </c>
       <c r="E83" t="n">
-        <v>70026</v>
+        <v>1152</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BARROW/W. POST W. ROGERS</t>
+          <t>BODO VI</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -10097,15 +10518,15 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>-156.7833333333333</v>
+        <v>14.35861111111111</v>
       </c>
       <c r="L83" t="n">
-        <v>71.28888888888889</v>
+        <v>67.26694444444445</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10128,11 +10549,11 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bodo</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
@@ -10165,20 +10586,23 @@
         </is>
       </c>
       <c r="AM83" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO83" t="n">
+        <v>2.7</v>
       </c>
       <c r="AP83" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
-          <t>70026_stationfile.csv</t>
+          <t>01152_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR83" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -10188,7 +10612,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0-20001-0-71082</t>
+          <t>0-20000-0-23415</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -10198,14 +10622,14 @@
         <v>83</v>
       </c>
       <c r="E84" t="n">
-        <v>71082</v>
+        <v>23418</v>
       </c>
       <c r="F84" t="n">
         <v>3</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ALERT UA, NU</t>
+          <t>PECHORA (23415-0)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -10214,15 +10638,15 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>-62.33333333333334</v>
+        <v>57.1</v>
       </c>
       <c r="L84" t="n">
-        <v>82.5</v>
+        <v>65.11666666666666</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>1950-09-10</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -10245,11 +10669,11 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pechora</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
@@ -10282,20 +10706,23 @@
         </is>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN84" t="inlineStr"/>
-      <c r="AO84" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO84" t="n">
+        <v>6.6</v>
       </c>
       <c r="AP84" t="n">
-        <v>65.40000000000001</v>
+        <v>59</v>
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>71082_stationfile.csv</t>
+          <t>23418_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR84" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -10305,7 +10732,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0-20001-0-71043</t>
+          <t>0-20000-0-23205</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -10315,14 +10742,14 @@
         <v>84</v>
       </c>
       <c r="E85" t="n">
-        <v>71043</v>
+        <v>23205</v>
       </c>
       <c r="F85" t="n">
         <v>3</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>NORMAN WELLS UA, NWT</t>
+          <t>NAR'JAN-MAR</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -10331,15 +10758,15 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>-126.75</v>
+        <v>53.0175</v>
       </c>
       <c r="L85" t="n">
-        <v>65.28333333333333</v>
+        <v>67.625</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>1955-07-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -10362,11 +10789,11 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Naryan-Mar</t>
         </is>
       </c>
       <c r="V85" t="inlineStr"/>
@@ -10399,20 +10826,23 @@
         </is>
       </c>
       <c r="AM85" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="AN85" t="inlineStr"/>
-      <c r="AO85" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO85" t="n">
+        <v>1.3</v>
       </c>
       <c r="AP85" t="n">
-        <v>72.54000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
-          <t>71043_stationfile.csv</t>
+          <t>23205_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR85" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -10422,7 +10852,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0-20001-0-71917</t>
+          <t>0-20000-0-22113</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -10432,14 +10862,14 @@
         <v>85</v>
       </c>
       <c r="E86" t="n">
-        <v>71917</v>
+        <v>22113</v>
       </c>
       <c r="F86" t="n">
         <v>3</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>EUREKA UA, NU</t>
+          <t>MURMANSK (22113-0)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -10448,15 +10878,15 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>-85.93333333333334</v>
+        <v>33.04277777777778</v>
       </c>
       <c r="L86" t="n">
-        <v>79.98333333333333</v>
+        <v>68.95583333333333</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -10479,11 +10909,11 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Murmansk</t>
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
@@ -10516,20 +10946,23 @@
         </is>
       </c>
       <c r="AM86" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AN86" t="inlineStr"/>
-      <c r="AO86" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO86" t="n">
+        <v>2</v>
       </c>
       <c r="AP86" t="n">
-        <v>10.4</v>
+        <v>50.6</v>
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t>71917_stationfile.csv</t>
+          <t>22113_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR86" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10972,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0-20300-0-71072</t>
+          <t>0-20000-0-23472</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -10549,14 +10982,14 @@
         <v>86</v>
       </c>
       <c r="E87" t="n">
-        <v>71072</v>
+        <v>23472</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>MOULD BAY</t>
+          <t>TURUHANSK</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -10565,15 +10998,15 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>-119.35</v>
+        <v>87.98888888888889</v>
       </c>
       <c r="L87" t="n">
-        <v>76.25</v>
+        <v>65.79444444444444</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>1948-06-06</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -10596,11 +11029,11 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Norilsk</t>
         </is>
       </c>
       <c r="V87" t="inlineStr"/>
@@ -10636,17 +11069,20 @@
         <v>2.4</v>
       </c>
       <c r="AN87" t="inlineStr"/>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO87" t="n">
+        <v>398.7</v>
       </c>
       <c r="AP87" t="n">
-        <v>58</v>
+        <v>37.84</v>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>71072_stationfile.csv</t>
+          <t>23472_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -10656,7 +11092,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0-20001-0-71924</t>
+          <t>0-20000-0-02836</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -10666,14 +11102,14 @@
         <v>87</v>
       </c>
       <c r="E88" t="n">
-        <v>71924</v>
+        <v>2836</v>
       </c>
       <c r="F88" t="n">
         <v>3</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>RESOLUTE UA, NU</t>
+          <t>SODANKYLA ARCTIC RESEARCH CENTRE</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -10682,15 +11118,15 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>-94.96805555555557</v>
+        <v>26.62888888888889</v>
       </c>
       <c r="L88" t="n">
-        <v>74.70416666666667</v>
+        <v>67.36666666666666</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -10713,11 +11149,11 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rovaniemi</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
@@ -10750,20 +11186,23 @@
         </is>
       </c>
       <c r="AM88" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AN88" t="inlineStr"/>
-      <c r="AO88" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO88" t="n">
+        <v>105.3</v>
       </c>
       <c r="AP88" t="n">
-        <v>67.68000000000001</v>
+        <v>179.3</v>
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
-          <t>71924_stationfile.csv</t>
+          <t>02836_stationfile.csv</t>
+        </is>
+      </c>
+      <c r="AR88" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>

--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/hara_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/hara_station_configuration_extended.xlsx
@@ -715,11 +715,7 @@
       <c r="T2" t="n">
         <v>190</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -753,11 +749,7 @@
         <v>14.8</v>
       </c>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
         <v>278.32</v>
       </c>
@@ -898,7 +890,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0-20000-0-22408</t>
+          <t>0-20000-0-25248</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -908,14 +900,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>22408</v>
+        <v>25248</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>KALEVALA</t>
+          <t>ILIRNEJ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -924,20 +916,20 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>31.15</v>
+        <v>167.9666666666667</v>
       </c>
       <c r="L4" t="n">
-        <v>65.21666666666667</v>
+        <v>67.25</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1962-08-20</t>
+          <t>1971-02-25</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1962-12-08</t>
+          <t>1971-06-25</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -957,11 +949,7 @@
       <c r="T4" t="n">
         <v>190</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Kostomuksha</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -992,18 +980,16 @@
         </is>
       </c>
       <c r="AM4" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="n">
-        <v>58.8</v>
-      </c>
+      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>120</v>
+        <v>353.7</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>22408_stationfile.csv</t>
+          <t>25248_stationfile.csv</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1018,7 +1004,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0-20000-0-25248</t>
+          <t>0-20000-0-22408</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1028,14 +1014,14 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>25248</v>
+        <v>22408</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ILIRNEJ</t>
+          <t>KALEVALA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1044,20 +1030,20 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9666666666667</v>
+        <v>31.15</v>
       </c>
       <c r="L5" t="n">
-        <v>67.25</v>
+        <v>65.21666666666667</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1971-02-25</t>
+          <t>1962-08-20</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1971-06-25</t>
+          <t>1962-12-08</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1079,7 +1065,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kostomuksha</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -1112,20 +1098,18 @@
         </is>
       </c>
       <c r="AM5" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO5" t="n">
+        <v>58.8</v>
       </c>
       <c r="AP5" t="n">
-        <v>353.7</v>
+        <v>120</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>25248_stationfile.csv</t>
+          <t>22408_stationfile.csv</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1199,11 +1183,7 @@
       <c r="T6" t="n">
         <v>190</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1237,11 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
         <v>-999</v>
       </c>
@@ -1561,11 +1537,7 @@
       <c r="T9" t="n">
         <v>83</v>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
@@ -1599,11 +1571,7 @@
         <v>4.1</v>
       </c>
       <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
         <v>53</v>
       </c>
@@ -1683,11 +1651,7 @@
       <c r="T10" t="n">
         <v>83</v>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
@@ -1721,11 +1685,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
         <v>15</v>
       </c>
@@ -1805,11 +1765,7 @@
       <c r="T11" t="n">
         <v>83</v>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
@@ -1843,11 +1799,7 @@
         <v>2.6</v>
       </c>
       <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
         <v>-999</v>
       </c>
@@ -1927,11 +1879,7 @@
       <c r="T12" t="n">
         <v>83</v>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
@@ -1965,11 +1913,7 @@
         <v>2.2</v>
       </c>
       <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
         <v>-999</v>
       </c>
@@ -2169,11 +2113,7 @@
       <c r="T14" t="n">
         <v>190</v>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
@@ -2207,11 +2147,7 @@
         <v>1.9</v>
       </c>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="n">
         <v>4.8</v>
       </c>
@@ -2291,11 +2227,7 @@
       <c r="T15" t="n">
         <v>166</v>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
@@ -2329,11 +2261,7 @@
         <v>4.2</v>
       </c>
       <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="n">
         <v>9</v>
       </c>
@@ -2533,11 +2461,7 @@
       <c r="T17" t="n">
         <v>200</v>
       </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
@@ -2571,11 +2495,7 @@
         <v>0.2</v>
       </c>
       <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="n">
         <v>7</v>
       </c>
@@ -2775,11 +2695,7 @@
       <c r="T19" t="n">
         <v>190</v>
       </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
@@ -2813,11 +2729,7 @@
         <v>1.1</v>
       </c>
       <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="n">
         <v>5</v>
       </c>
@@ -3017,11 +2929,7 @@
       <c r="T21" t="n">
         <v>166</v>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
@@ -3055,11 +2963,7 @@
         <v>0.4</v>
       </c>
       <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="n">
         <v>7.7</v>
       </c>
@@ -3200,7 +3104,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0-20300-0-04310</t>
+          <t>0-20000-0-23274</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3210,14 +3114,14 @@
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>4310</v>
+        <v>23274</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NORD</t>
+          <t>IGARKA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3226,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.67</v>
+        <v>86.56666666666666</v>
       </c>
       <c r="L23" t="n">
-        <v>81.59999999999999</v>
+        <v>67.46666666666667</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
@@ -3239,7 +3143,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1996-05-10</t>
+          <t>1992-02-15</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -3257,11 +3161,11 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dudinka</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -3294,25 +3198,23 @@
         </is>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO23" t="n">
+        <v>216.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>04310_stationfile.csv</t>
+          <t>23274_stationfile.csv</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3224,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0-20111-0-71918</t>
+          <t>0-20001-0-22522</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3332,14 +3234,14 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>71918</v>
+        <v>22522</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ARCTIC BAY, NT</t>
+          <t>KEM'</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3348,20 +3250,20 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-85.15000000000001</v>
+        <v>34.65</v>
       </c>
       <c r="L24" t="n">
-        <v>73.03</v>
+        <v>64.95</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1966-06-30</t>
+          <t>1973-05-17</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -3379,11 +3281,11 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kem</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -3416,25 +3318,23 @@
         </is>
       </c>
       <c r="AM24" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO24" t="n">
+        <v>9.9</v>
       </c>
       <c r="AP24" t="n">
-        <v>-999</v>
+        <v>7.5</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>71918_stationfile.csv</t>
+          <t>22522_stationfile.csv</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>HARA</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3344,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0-20001-0-22522</t>
+          <t>0-20300-0-04310</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3454,14 +3354,14 @@
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>22522</v>
+        <v>4310</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>KEM'</t>
+          <t>NORD</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3470,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.65</v>
+        <v>-16.67</v>
       </c>
       <c r="L25" t="n">
-        <v>64.95</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
@@ -3483,7 +3383,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1973-05-17</t>
+          <t>1996-05-10</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -3501,13 +3401,9 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>190</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Kem</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -3538,23 +3434,21 @@
         </is>
       </c>
       <c r="AM25" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="n">
-        <v>7.5</v>
+        <v>40</v>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>22522_stationfile.csv</t>
+          <t>04310_stationfile.csv</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3458,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0-20000-0-25042</t>
+          <t>0-20111-0-71918</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3574,14 +3468,14 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>25042</v>
+        <v>71918</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AJON</t>
+          <t>ARCTIC BAY, NT</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3590,20 +3484,20 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>167.9688888888889</v>
+        <v>-85.15000000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>69.91861111111112</v>
+        <v>73.03</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1995-12-09</t>
+          <t>1966-06-30</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -3621,13 +3515,9 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>190</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -3658,25 +3548,21 @@
         </is>
       </c>
       <c r="AM26" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="n">
-        <v>13.7</v>
+        <v>-999</v>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>25042_stationfile.csv</t>
+          <t>71918_stationfile.csv</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>HARA</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3572,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0-20300-0-71968</t>
+          <t>0-20000-0-25042</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3696,14 +3582,14 @@
         <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>71968</v>
+        <v>25042</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AKLAVIK</t>
+          <t>AJON</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3712,20 +3598,20 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-135</v>
+        <v>167.9688888888889</v>
       </c>
       <c r="L27" t="n">
-        <v>68.23</v>
+        <v>69.91861111111112</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1950-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1960-09-12</t>
+          <t>1995-12-09</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -3743,13 +3629,9 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>37</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -3780,25 +3662,21 @@
         </is>
       </c>
       <c r="AM27" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>13.7</v>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>71968_stationfile.csv</t>
+          <t>25042_stationfile.csv</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3686,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0-20000-0-21946</t>
+          <t>0-20000-0-02185</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3818,14 +3696,14 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>21946</v>
+        <v>2057</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CHOKURDAH</t>
+          <t>LULEA-KALLAX (2185-0)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3834,20 +3712,20 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>147.8833333333333</v>
+        <v>22.11444444444444</v>
       </c>
       <c r="L28" t="n">
-        <v>70.61666666666666</v>
+        <v>65.54333333333334</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1963-08-23</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1977-06-30</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -3865,11 +3743,11 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Lulea</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -3902,20 +3780,18 @@
         </is>
       </c>
       <c r="AM28" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO28" t="n">
+        <v>9.6</v>
       </c>
       <c r="AP28" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>21946_stationfile.csv</t>
+          <t>02057_stationfile.csv</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -3930,7 +3806,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0-20000-0-25399</t>
+          <t>0-20000-0-20667</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3940,14 +3816,14 @@
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>25399</v>
+        <v>20667</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>MYS UELEN</t>
+          <t>IM. M.V. POPOVA</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3956,20 +3832,20 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-169.8347222222222</v>
+        <v>70.06638888888888</v>
       </c>
       <c r="L29" t="n">
-        <v>66.16277777777778</v>
+        <v>73.33277777777778</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-03</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1996-04-12</t>
+          <t>1995-02-24</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -3989,11 +3865,7 @@
       <c r="T29" t="n">
         <v>190</v>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
@@ -4024,20 +3896,16 @@
         </is>
       </c>
       <c r="AM29" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="n">
-        <v>7.06</v>
+        <v>5.6</v>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>25399_stationfile.csv</t>
+          <t>20667_stationfile.csv</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -4052,7 +3920,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0-20000-0-23078</t>
+          <t>0-20300-0-71968</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4062,14 +3930,14 @@
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>23078</v>
+        <v>71968</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>NORIL'SK</t>
+          <t>AKLAVIK</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4078,20 +3946,20 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>88.26388888888889</v>
+        <v>-135</v>
       </c>
       <c r="L30" t="n">
-        <v>69.34722222222221</v>
+        <v>68.23</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1980-02-05</t>
+          <t>1950-01-01</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1996-05-23</t>
+          <t>1960-09-12</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -4109,13 +3977,9 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>190</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Norilsk</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
@@ -4146,23 +4010,21 @@
         </is>
       </c>
       <c r="AM30" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="n">
-        <v>64.59999999999999</v>
+        <v>10</v>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>23078_stationfile.csv</t>
+          <t>71968_stationfile.csv</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4034,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0-20300-0-04340</t>
+          <t>0-20000-0-21946</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4182,14 +4044,14 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>4340</v>
+        <v>21946</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>KAP TOBIN</t>
+          <t>CHOKURDAH</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4198,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-21.97</v>
+        <v>147.8833333333333</v>
       </c>
       <c r="L31" t="n">
-        <v>70.42</v>
+        <v>70.61666666666666</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
@@ -4211,7 +4073,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1980-10-28</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -4229,13 +4091,9 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>83</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
@@ -4266,25 +4124,21 @@
         </is>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>04340_stationfile.csv</t>
+          <t>21946_stationfile.csv</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4148,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0-20000-0-71938</t>
+          <t>0-20000-0-25399</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -4304,14 +4158,14 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>71938</v>
+        <v>25399</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>KUGLUKTUK A, NU</t>
+          <t>MYS UELEN</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4320,20 +4174,20 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-115.1438888888889</v>
+        <v>-169.8347222222222</v>
       </c>
       <c r="L32" t="n">
-        <v>67.81666666666666</v>
+        <v>66.16277777777778</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1948-01-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1970-02-17</t>
+          <t>1996-04-12</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -4351,13 +4205,9 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>37</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
@@ -4388,20 +4238,16 @@
         </is>
       </c>
       <c r="AM32" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="n">
-        <v>22.6</v>
+        <v>7.06</v>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>71938_stationfile.csv</t>
+          <t>25399_stationfile.csv</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -4416,7 +4262,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0-20000-0-71090</t>
+          <t>0-20000-0-23078</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -4426,14 +4272,14 @@
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>71090</v>
+        <v>23078</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CLYDE RIVER A, NU</t>
+          <t>NORIL'SK</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4442,20 +4288,20 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-68.51694444444445</v>
+        <v>88.26388888888889</v>
       </c>
       <c r="L33" t="n">
-        <v>70.48583333333333</v>
+        <v>69.34722222222221</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1950-01-01</t>
+          <t>1980-02-05</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1972-11-28</t>
+          <t>1996-05-23</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -4473,11 +4319,11 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Norilsk</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -4513,17 +4359,15 @@
         <v>3.5</v>
       </c>
       <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO33" t="n">
+        <v>3.8</v>
       </c>
       <c r="AP33" t="n">
-        <v>26.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>71090_stationfile.csv</t>
+          <t>23078_stationfile.csv</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -4538,7 +4382,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0-20000-0-70133</t>
+          <t>0-20300-0-04340</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -4548,14 +4392,14 @@
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>70133</v>
+        <v>4340</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>KOTZEBUE, RALPH WIEN</t>
+          <t>KAP TOBIN</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4564,20 +4408,20 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-162.6133333333333</v>
+        <v>-21.97</v>
       </c>
       <c r="L34" t="n">
-        <v>66.8863888888889</v>
+        <v>70.42</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1962-03-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1980-10-28</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -4595,13 +4439,9 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>231</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
@@ -4632,25 +4472,21 @@
         </is>
       </c>
       <c r="AM34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>70133_stationfile.csv</t>
+          <t>04340_stationfile.csv</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4496,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0-20000-0-20891</t>
+          <t>0-20000-0-25400</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -4670,14 +4506,14 @@
         <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>20891</v>
+        <v>25400</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>HATANGA</t>
+          <t>ZYRYANKA (25400-0)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4686,20 +4522,20 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>102.4663888888889</v>
+        <v>150.9</v>
       </c>
       <c r="L35" t="n">
-        <v>71.97722222222222</v>
+        <v>65.73333333333333</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1963-04-11</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1996-06-28</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -4719,11 +4555,7 @@
       <c r="T35" t="n">
         <v>190</v>
       </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -4754,20 +4586,16 @@
         </is>
       </c>
       <c r="AM35" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="n">
-        <v>32.8</v>
+        <v>42.9</v>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>20891_stationfile.csv</t>
+          <t>25400_stationfile.csv</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
@@ -4782,7 +4610,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0-20000-0-24125</t>
+          <t>0-20000-0-20107</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4792,14 +4620,14 @@
         <v>35</v>
       </c>
       <c r="E36" t="n">
-        <v>24125</v>
+        <v>20107</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>OLENEK (24125-0)</t>
+          <t>BARENTSBURG</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4808,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>112.4333333333333</v>
+        <v>14.22111111111111</v>
       </c>
       <c r="L36" t="n">
-        <v>68.5</v>
+        <v>78.05555555555556</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -4821,7 +4649,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1995-01-27</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -4839,13 +4667,9 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>190</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Udachnyy</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -4876,18 +4700,16 @@
         </is>
       </c>
       <c r="AM36" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="n">
-        <v>232.4</v>
-      </c>
+      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="n">
-        <v>219.54</v>
+        <v>75.8</v>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>24125_stationfile.csv</t>
+          <t>20107_stationfile.csv</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
@@ -4902,7 +4724,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0-20300-0-21358</t>
+          <t>0-20300-0-23146</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4912,14 +4734,14 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>21358</v>
+        <v>23146</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>OSTROV ZOHOVA</t>
+          <t>MYS KAMENNY</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4928,20 +4750,20 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>152.83</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>76.15000000000001</v>
+        <v>68.47</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1993-11-15</t>
+          <t>1995-04-04</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -4963,7 +4785,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pangody</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -4999,17 +4821,15 @@
         <v>0</v>
       </c>
       <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO37" t="n">
+        <v>289.7</v>
       </c>
       <c r="AP37" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>21358_stationfile.csv</t>
+          <t>23146_stationfile.csv</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -5024,7 +4844,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0-20000-0-24266</t>
+          <t>0-20000-0-71938</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -5034,14 +4854,14 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>24266</v>
+        <v>71938</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>VERHOJANSK</t>
+          <t>KUGLUKTUK A, NU</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5050,20 +4870,20 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>133.4</v>
+        <v>-115.1438888888889</v>
       </c>
       <c r="L38" t="n">
-        <v>67.56666666666666</v>
+        <v>67.81666666666666</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-02</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1970-02-17</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -5081,13 +4901,9 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>190</v>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -5118,20 +4934,16 @@
         </is>
       </c>
       <c r="AM38" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="n">
-        <v>136.24</v>
+        <v>22.6</v>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>24266_stationfile.csv</t>
+          <t>71938_stationfile.csv</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
@@ -5146,7 +4958,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0-20300-0-21504</t>
+          <t>0-20000-0-71090</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -5156,14 +4968,14 @@
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>21504</v>
+        <v>71090</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>OSTROV PREOBRAZHENIA</t>
+          <t>CLYDE RIVER A, NU</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5172,20 +4984,20 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>112.93</v>
+        <v>-68.51694444444445</v>
       </c>
       <c r="L39" t="n">
-        <v>74.67</v>
+        <v>70.48583333333333</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1950-01-01</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1972-11-28</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -5203,13 +5015,9 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>190</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
@@ -5240,25 +5048,21 @@
         </is>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="n">
-        <v>60</v>
+        <v>26.5</v>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>21504_stationfile.csv</t>
+          <t>71090_stationfile.csv</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5072,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0-20000-0-25123</t>
+          <t>0-20000-0-70133</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -5278,14 +5082,14 @@
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>25123</v>
+        <v>70133</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CHERSKIJ</t>
+          <t>KOTZEBUE, RALPH WIEN</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5294,15 +5098,15 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>161.2833333333333</v>
+        <v>-162.6133333333333</v>
       </c>
       <c r="L40" t="n">
-        <v>68.75</v>
+        <v>66.8863888888889</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1962-03-04</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5325,13 +5129,9 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>190</v>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
@@ -5362,20 +5162,16 @@
         </is>
       </c>
       <c r="AM40" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>25123_stationfile.csv</t>
+          <t>70133_stationfile.csv</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
@@ -5390,7 +5186,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0-20000-0-04339</t>
+          <t>0-20000-0-20891</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -5400,14 +5196,14 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>4339</v>
+        <v>20891</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ITTOQQORTOORMIIT (SCORESBYSUND)</t>
+          <t>HATANGA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5416,20 +5212,20 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-21.95111111111111</v>
+        <v>102.4663888888889</v>
       </c>
       <c r="L41" t="n">
-        <v>70.48444444444445</v>
+        <v>71.97722222222222</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1980-10-25</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-06-28</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -5447,13 +5243,9 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>83</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
@@ -5484,20 +5276,16 @@
         </is>
       </c>
       <c r="AM41" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="n">
-        <v>71.45999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>04339_stationfile.csv</t>
+          <t>20891_stationfile.csv</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
@@ -5512,7 +5300,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0-20300-0-21647</t>
+          <t>0-20000-0-24125</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -5522,14 +5310,14 @@
         <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>21647</v>
+        <v>24125</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MYS SHALAUROVA</t>
+          <t>OLENEK (24125-0)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5538,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>143.533</v>
+        <v>112.4333333333333</v>
       </c>
       <c r="L42" t="n">
-        <v>73.2</v>
+        <v>68.5</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -5551,7 +5339,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1995-12-29</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -5573,7 +5361,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Udachnyy</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -5609,22 +5397,20 @@
         <v>0.1</v>
       </c>
       <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO42" t="n">
+        <v>232.4</v>
       </c>
       <c r="AP42" t="n">
-        <v>23</v>
+        <v>219.54</v>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>21647_stationfile.csv</t>
+          <t>24125_stationfile.csv</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5634,7 +5420,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0-20000-0-20674</t>
+          <t>0-20300-0-20274</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -5644,14 +5430,14 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>20674</v>
+        <v>20274</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>OSTROV DIKSON</t>
+          <t>OSTROV UEDINENIA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5660,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>80.4063888888889</v>
+        <v>82.23</v>
       </c>
       <c r="L43" t="n">
-        <v>73.51361111111112</v>
+        <v>77.5</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
@@ -5673,7 +5459,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1996-07-05</t>
+          <t>1996-01-03</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -5693,11 +5479,7 @@
       <c r="T43" t="n">
         <v>190</v>
       </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
@@ -5728,25 +5510,21 @@
         </is>
       </c>
       <c r="AM43" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="n">
-        <v>46.37</v>
+        <v>23</v>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>20674_stationfile.csv</t>
+          <t>20274_stationfile.csv</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5534,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0-20000-0-02185</t>
+          <t>0-20300-0-21358</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -5766,14 +5544,14 @@
         <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>2185</v>
+        <v>21358</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>LULEA-KALLAX (2185-0)</t>
+          <t>OSTROV ZOHOVA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5782,20 +5560,20 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>22.11444444444444</v>
+        <v>152.83</v>
       </c>
       <c r="L44" t="n">
-        <v>65.54333333333334</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1977-08-05</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1993-11-15</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -5813,13 +5591,9 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>196</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Lulea</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
@@ -5850,23 +5624,21 @@
         </is>
       </c>
       <c r="AM44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>02185_stationfile.csv</t>
+          <t>21358_stationfile.csv</t>
         </is>
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5648,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0-20300-0-21965</t>
+          <t>0-20000-0-20069</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -5886,14 +5658,14 @@
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>21965</v>
+        <v>20069</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>OSTROV CHETYREKHSTOLBO</t>
+          <t>OSTROV VIZE</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5902,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4</v>
+        <v>76.98055555555555</v>
       </c>
       <c r="L45" t="n">
-        <v>70.63</v>
+        <v>79.49083333333333</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -5915,7 +5687,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1996-05-27</t>
+          <t>1996-04-22</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -5935,11 +5707,7 @@
       <c r="T45" t="n">
         <v>190</v>
       </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
@@ -5970,25 +5738,21 @@
         </is>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>21965_stationfile.csv</t>
+          <t>20069_stationfile.csv</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5762,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0-20000-0-22271</t>
+          <t>0-20000-0-24266</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -6008,14 +5772,14 @@
         <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>22271</v>
+        <v>24266</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SHOJNA</t>
+          <t>VERHOJANSK</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6024,15 +5788,15 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>44.17416666666666</v>
+        <v>133.4</v>
       </c>
       <c r="L46" t="n">
-        <v>67.87666666666667</v>
+        <v>67.56666666666666</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1963-07-22</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6057,11 +5821,7 @@
       <c r="T46" t="n">
         <v>190</v>
       </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>Arkhangelsk</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
@@ -6092,18 +5852,16 @@
         </is>
       </c>
       <c r="AM46" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="n">
-        <v>397.2</v>
-      </c>
+      <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="n">
-        <v>8</v>
+        <v>136.24</v>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>22271_stationfile.csv</t>
+          <t>24266_stationfile.csv</t>
         </is>
       </c>
       <c r="AR46" t="inlineStr">
@@ -6118,7 +5876,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0-20000-0-21982</t>
+          <t>0-20001-0-20744</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -6128,14 +5886,14 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>21982</v>
+        <v>20744</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>OSTROV VRANGELJA</t>
+          <t>MALYE KARMAKULY (20744-1)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6144,15 +5902,15 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-178.65</v>
+        <v>52.7</v>
       </c>
       <c r="L47" t="n">
-        <v>70.98333333333333</v>
+        <v>72.36666666666666</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6179,7 +5937,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Naryan-Mar</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -6212,20 +5970,18 @@
         </is>
       </c>
       <c r="AM47" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO47" t="n">
+        <v>527.6</v>
       </c>
       <c r="AP47" t="n">
-        <v>4.6</v>
+        <v>14.7</v>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>21982_stationfile.csv</t>
+          <t>20744_stationfile.csv</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -6240,7 +5996,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0-20000-0-21432</t>
+          <t>0-20300-0-21504</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -6250,14 +6006,14 @@
         <v>47</v>
       </c>
       <c r="E48" t="n">
-        <v>21432</v>
+        <v>21504</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>OSTROV KOTEL'NYJ</t>
+          <t>OSTROV PREOBRAZHENIA</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6266,10 +6022,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>137.8666666666667</v>
+        <v>112.93</v>
       </c>
       <c r="L48" t="n">
-        <v>76</v>
+        <v>74.67</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -6299,11 +6055,7 @@
       <c r="T48" t="n">
         <v>190</v>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
@@ -6334,25 +6086,21 @@
         </is>
       </c>
       <c r="AM48" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="n">
-        <v>14.9</v>
+        <v>60</v>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>21432_stationfile.csv</t>
+          <t>21504_stationfile.csv</t>
         </is>
       </c>
       <c r="AR48" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6110,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0-20000-0-24343</t>
+          <t>0-20000-0-04339</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -6372,14 +6120,14 @@
         <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>24343</v>
+        <v>4339</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ZHIGANSK</t>
+          <t>ITTOQQORTOORMIIT (SCORESBYSUND)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6388,15 +6136,15 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>123.4</v>
+        <v>-21.95111111111111</v>
       </c>
       <c r="L49" t="n">
-        <v>66.76666666666667</v>
+        <v>70.48444444444445</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1980-10-25</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6419,13 +6167,9 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>190</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
@@ -6456,20 +6200,16 @@
         </is>
       </c>
       <c r="AM49" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="n">
-        <v>92.36</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>24343_stationfile.csv</t>
+          <t>04339_stationfile.csv</t>
         </is>
       </c>
       <c r="AR49" t="inlineStr">
@@ -6484,7 +6224,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0-20000-0-20292</t>
+          <t>0-20000-0-25123</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -6494,14 +6234,14 @@
         <v>49</v>
       </c>
       <c r="E50" t="n">
-        <v>20292</v>
+        <v>25123</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>GMO IM.E.K. FEDOROVA</t>
+          <t>CHERSKIJ</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6510,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>104.2919444444444</v>
+        <v>161.2833333333333</v>
       </c>
       <c r="L50" t="n">
-        <v>77.71305555555556</v>
+        <v>68.75</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -6523,7 +6263,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1996-05-11</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -6543,11 +6283,7 @@
       <c r="T50" t="n">
         <v>190</v>
       </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
@@ -6578,20 +6314,16 @@
         </is>
       </c>
       <c r="AM50" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>20292_stationfile.csv</t>
+          <t>25123_stationfile.csv</t>
         </is>
       </c>
       <c r="AR50" t="inlineStr">
@@ -6606,7 +6338,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0-20000-0-21824</t>
+          <t>0-20000-0-22217</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -6616,14 +6348,14 @@
         <v>50</v>
       </c>
       <c r="E51" t="n">
-        <v>21824</v>
+        <v>22217</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>TIKSI</t>
+          <t>KANDALAKSHA</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6632,10 +6364,10 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>128.9166666666667</v>
+        <v>32.35416666666667</v>
       </c>
       <c r="L51" t="n">
-        <v>71.58333333333333</v>
+        <v>67.16916666666667</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -6645,7 +6377,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-06-25</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -6667,7 +6399,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kandalaksha</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -6700,20 +6432,18 @@
         </is>
       </c>
       <c r="AM51" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO51" t="n">
+        <v>4.7</v>
       </c>
       <c r="AP51" t="n">
-        <v>7</v>
+        <v>25.4</v>
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>21824_stationfile.csv</t>
+          <t>22217_stationfile.csv</t>
         </is>
       </c>
       <c r="AR51" t="inlineStr">
@@ -6728,7 +6458,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0-20000-0-04220</t>
+          <t>0-20000-0-20046</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -6738,14 +6468,14 @@
         <v>51</v>
       </c>
       <c r="E52" t="n">
-        <v>4220</v>
+        <v>20046</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>AASIAAT (EGEDESMINDE)</t>
+          <t>POLARGMO IM. E.T. KRENKELJA</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6754,10 +6484,10 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>-52.85166666666667</v>
+        <v>58.05888888888889</v>
       </c>
       <c r="L52" t="n">
-        <v>68.70805555555556</v>
+        <v>80.62638888888888</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -6785,13 +6515,9 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>83</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
@@ -6822,20 +6548,16 @@
         </is>
       </c>
       <c r="AM52" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="n">
-        <v>41</v>
+        <v>24.66</v>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>04220_stationfile.csv</t>
+          <t>20046_stationfile.csv</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -6850,7 +6572,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0-20300-0-25173</t>
+          <t>0-20000-0-02185</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -6860,14 +6582,14 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>25173</v>
+        <v>2185</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MYS SHMIDTA</t>
+          <t>LULEA-KALLAX (2185-0)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6876,15 +6598,15 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>-179.48</v>
+        <v>22.11444444444444</v>
       </c>
       <c r="L53" t="n">
-        <v>68.92</v>
+        <v>65.54333333333334</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1977-08-05</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6907,11 +6629,11 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Anadyr</t>
+          <t>Lulea</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -6944,23 +6666,23 @@
         </is>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="n">
-        <v>483.4</v>
+        <v>3.8</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
-          <t>25173_stationfile.csv</t>
+          <t>02185_stationfile.csv</t>
         </is>
       </c>
       <c r="AR53" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6692,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0-20000-0-04320</t>
+          <t>0-20300-0-21647</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -6980,14 +6702,14 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>4320</v>
+        <v>21647</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>DANMARKSHAVN</t>
+          <t>USAF-DS3-167</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -6996,20 +6718,20 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>-18.66805555555556</v>
+        <v>143.533</v>
       </c>
       <c r="L54" t="n">
-        <v>76.76944444444445</v>
+        <v>73.2</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1995-12-29</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -7027,13 +6749,9 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>83</v>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
@@ -7064,25 +6782,21 @@
         </is>
       </c>
       <c r="AM54" t="n">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>04320_stationfile.csv</t>
+          <t>21647_stationfile.csv</t>
         </is>
       </c>
       <c r="AR54" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -7092,7 +6806,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0-20001-0-01028</t>
+          <t>0-20000-0-20674</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -7102,14 +6816,14 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>1028</v>
+        <v>20674</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>BJORNOYA (1028-1)</t>
+          <t>OSTROV DIKSON</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -7118,20 +6832,20 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>19.00111111111111</v>
+        <v>80.4063888888889</v>
       </c>
       <c r="L55" t="n">
-        <v>74.50388888888889</v>
+        <v>73.51361111111112</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-07-05</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -7149,13 +6863,9 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>166</v>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
@@ -7186,18 +6896,16 @@
         </is>
       </c>
       <c r="AM55" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AN55" t="inlineStr"/>
-      <c r="AO55" t="n">
-        <v>526.7</v>
-      </c>
+      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="n">
-        <v>18</v>
+        <v>46.37</v>
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>01028_stationfile.csv</t>
+          <t>20674_stationfile.csv</t>
         </is>
       </c>
       <c r="AR55" t="inlineStr">
@@ -7212,7 +6920,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0-20000-0-71074</t>
+          <t>0-20300-0-21965</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -7222,14 +6930,14 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>71074</v>
+        <v>21965</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ISACHSEN (AUT), NU</t>
+          <t>OSTROV CHETYREKHSTOLBO</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -7238,20 +6946,20 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>-103.5544444444444</v>
+        <v>162.4</v>
       </c>
       <c r="L56" t="n">
-        <v>78.79222222222222</v>
+        <v>70.63</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1948-08-18</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>1978-06-19</t>
+          <t>1996-05-27</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -7269,13 +6977,9 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>37</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
@@ -7306,25 +7010,21 @@
         </is>
       </c>
       <c r="AM56" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AN56" t="inlineStr"/>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
-          <t>71074_stationfile.csv</t>
+          <t>21965_stationfile.csv</t>
         </is>
       </c>
       <c r="AR56" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7034,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0-20000-0-04360</t>
+          <t>0-20000-0-21982</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -7344,14 +7044,14 @@
         <v>56</v>
       </c>
       <c r="E57" t="n">
-        <v>4360</v>
+        <v>21982</v>
       </c>
       <c r="F57" t="n">
         <v>3</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>TASIILAQ (AMMASSALIK)</t>
+          <t>OSTROV VRANGELJA</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -7360,10 +7060,10 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>-37.63666666666666</v>
+        <v>-178.65</v>
       </c>
       <c r="L57" t="n">
-        <v>65.6111111111111</v>
+        <v>70.98333333333333</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -7391,13 +7091,9 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>83</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
@@ -7428,20 +7124,16 @@
         </is>
       </c>
       <c r="AM57" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="n">
-        <v>55.93</v>
+        <v>4.6</v>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>04360_stationfile.csv</t>
+          <t>21982_stationfile.csv</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -7456,7 +7148,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0-20300-0-71051</t>
+          <t>0-20000-0-20292</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -7466,14 +7158,14 @@
         <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>71051</v>
+        <v>20292</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>SACHS HARBOUR</t>
+          <t>GMO IM.E.K. FEDOROVA</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7482,20 +7174,20 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>-125.27</v>
+        <v>104.2919444444444</v>
       </c>
       <c r="L58" t="n">
-        <v>72</v>
+        <v>77.71305555555556</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1955-11-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>1992-03-21</t>
+          <t>1996-05-11</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -7513,13 +7205,9 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>37</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
@@ -7550,25 +7238,21 @@
         </is>
       </c>
       <c r="AM58" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AN58" t="inlineStr"/>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
-          <t>71051_stationfile.csv</t>
+          <t>20292_stationfile.csv</t>
         </is>
       </c>
       <c r="AR58" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7578,7 +7262,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0-20001-0-71925</t>
+          <t>0-20000-0-22271</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -7588,14 +7272,14 @@
         <v>58</v>
       </c>
       <c r="E59" t="n">
-        <v>71925</v>
+        <v>22271</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CAMBRIDGE BAY UA, NU</t>
+          <t>SHOJNA</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -7604,15 +7288,15 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>-105.0666666666667</v>
+        <v>44.17416666666666</v>
       </c>
       <c r="L59" t="n">
-        <v>69.13333333333334</v>
+        <v>67.87666666666667</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1962-03-04</t>
+          <t>1963-07-22</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7635,11 +7319,11 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Arkhangelsk</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -7672,20 +7356,18 @@
         </is>
       </c>
       <c r="AM59" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="AN59" t="inlineStr"/>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO59" t="n">
+        <v>397.2</v>
       </c>
       <c r="AP59" t="n">
-        <v>31.09</v>
+        <v>8</v>
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
-          <t>71925_stationfile.csv</t>
+          <t>22271_stationfile.csv</t>
         </is>
       </c>
       <c r="AR59" t="inlineStr">
@@ -7700,7 +7382,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0-20000-0-70086</t>
+          <t>0-20000-0-23022</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -7710,14 +7392,14 @@
         <v>59</v>
       </c>
       <c r="E60" t="n">
-        <v>70086</v>
+        <v>23022</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>BARTER ISLAND</t>
+          <t>AMDERMA</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -7726,20 +7408,20 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>-143.6333333333333</v>
+        <v>61.65777777777777</v>
       </c>
       <c r="L60" t="n">
-        <v>70.13333333333334</v>
+        <v>69.78333333333333</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1953-04-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1989-06-21</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -7757,11 +7439,11 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Severnyy</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -7794,20 +7476,18 @@
         </is>
       </c>
       <c r="AM60" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="AN60" t="inlineStr"/>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO60" t="n">
+        <v>256.7</v>
       </c>
       <c r="AP60" t="n">
-        <v>11.9</v>
+        <v>47.68</v>
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>70086_stationfile.csv</t>
+          <t>23022_stationfile.csv</t>
         </is>
       </c>
       <c r="AR60" t="inlineStr">
@@ -7822,7 +7502,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0-20001-0-71957</t>
+          <t>0-20000-0-21432</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -7832,14 +7512,14 @@
         <v>60</v>
       </c>
       <c r="E61" t="n">
-        <v>71957</v>
+        <v>21432</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>INUVIK UA, NWT</t>
+          <t>OSTROV KOTEL'NYJ</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -7848,15 +7528,15 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>-133.5166666666667</v>
+        <v>137.8666666666667</v>
       </c>
       <c r="L61" t="n">
-        <v>68.31666666666666</v>
+        <v>76</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1960-09-12</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7879,13 +7559,9 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>37</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
@@ -7916,20 +7592,16 @@
         </is>
       </c>
       <c r="AM61" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AN61" t="inlineStr"/>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="n">
-        <v>67.67</v>
+        <v>14.9</v>
       </c>
       <c r="AQ61" t="inlineStr">
         <is>
-          <t>71957_stationfile.csv</t>
+          <t>21432_stationfile.csv</t>
         </is>
       </c>
       <c r="AR61" t="inlineStr">
@@ -7944,7 +7616,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0-20001-0-71081</t>
+          <t>0-20000-0-24343</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -7954,14 +7626,14 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>71081</v>
+        <v>24343</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>HALL BEACH UA, NU</t>
+          <t>ZHIGANSK</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -7970,15 +7642,15 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>-81.21666666666667</v>
+        <v>123.4</v>
       </c>
       <c r="L62" t="n">
-        <v>68.76666666666667</v>
+        <v>66.76666666666667</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1957-08-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -8001,13 +7673,9 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>37</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
@@ -8038,20 +7706,16 @@
         </is>
       </c>
       <c r="AM62" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="AN62" t="inlineStr"/>
-      <c r="AO62" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="n">
-        <v>5.9</v>
+        <v>92.36</v>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>71081_stationfile.csv</t>
+          <t>24343_stationfile.csv</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
@@ -8066,7 +7730,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0-20000-0-04202</t>
+          <t>0-20001-0-01028</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -8076,14 +7740,14 @@
         <v>62</v>
       </c>
       <c r="E63" t="n">
-        <v>4202</v>
+        <v>1028</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PITUFFIK (THULE AIR BASE)</t>
+          <t>BJORNOYA (1028-1)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -8092,15 +7756,15 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>-68.75</v>
+        <v>19.00111111111111</v>
       </c>
       <c r="L63" t="n">
-        <v>76.53333333333333</v>
+        <v>74.50388888888889</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1952-08-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8123,11 +7787,11 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -8160,20 +7824,18 @@
         </is>
       </c>
       <c r="AM63" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AN63" t="inlineStr"/>
-      <c r="AO63" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO63" t="n">
+        <v>526.7</v>
       </c>
       <c r="AP63" t="n">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
-          <t>04202_stationfile.csv</t>
+          <t>01028_stationfile.csv</t>
         </is>
       </c>
       <c r="AR63" t="inlineStr">
@@ -8188,7 +7850,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0-20000-0-70026</t>
+          <t>0-20000-0-23330</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -8198,14 +7860,14 @@
         <v>63</v>
       </c>
       <c r="E64" t="n">
-        <v>70026</v>
+        <v>23330</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>BARROW/W. POST W. ROGERS</t>
+          <t>SALEHARD</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -8214,15 +7876,15 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>-156.7833333333333</v>
+        <v>66.67444444444445</v>
       </c>
       <c r="L64" t="n">
-        <v>71.28888888888889</v>
+        <v>66.53194444444445</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8245,11 +7907,11 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Salekhard</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -8282,20 +7944,18 @@
         </is>
       </c>
       <c r="AM64" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="AN64" t="inlineStr"/>
-      <c r="AO64" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO64" t="n">
+        <v>3.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>11.9</v>
+        <v>16.3</v>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
-          <t>70026_stationfile.csv</t>
+          <t>23330_stationfile.csv</t>
         </is>
       </c>
       <c r="AR64" t="inlineStr">
@@ -8310,7 +7970,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0-20001-0-71082</t>
+          <t>0-20000-0-23472</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -8320,14 +7980,14 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>71082</v>
+        <v>23472</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ALERT UA, NU</t>
+          <t>TURUHANSK</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8336,15 +7996,15 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>-62.33333333333334</v>
+        <v>87.98888888888889</v>
       </c>
       <c r="L65" t="n">
-        <v>82.5</v>
+        <v>65.79444444444444</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1950-09-10</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8367,11 +8027,11 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Norilsk</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -8404,20 +8064,18 @@
         </is>
       </c>
       <c r="AM65" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AN65" t="inlineStr"/>
-      <c r="AO65" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO65" t="n">
+        <v>398.7</v>
       </c>
       <c r="AP65" t="n">
-        <v>65.40000000000001</v>
+        <v>37.84</v>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>71082_stationfile.csv</t>
+          <t>23472_stationfile.csv</t>
         </is>
       </c>
       <c r="AR65" t="inlineStr">
@@ -8432,7 +8090,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0-20001-0-71043</t>
+          <t>0-20000-0-23205</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -8442,14 +8100,14 @@
         <v>65</v>
       </c>
       <c r="E66" t="n">
-        <v>71043</v>
+        <v>23205</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NORMAN WELLS UA, NWT</t>
+          <t>NAR'JAN-MAR</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8458,15 +8116,15 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-126.75</v>
+        <v>53.0175</v>
       </c>
       <c r="L66" t="n">
-        <v>65.28333333333333</v>
+        <v>67.625</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1955-07-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8489,11 +8147,11 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Naryan-Mar</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -8526,20 +8184,18 @@
         </is>
       </c>
       <c r="AM66" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="AN66" t="inlineStr"/>
-      <c r="AO66" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO66" t="n">
+        <v>1.3</v>
       </c>
       <c r="AP66" t="n">
-        <v>72.54000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
-          <t>71043_stationfile.csv</t>
+          <t>23205_stationfile.csv</t>
         </is>
       </c>
       <c r="AR66" t="inlineStr">
@@ -8554,7 +8210,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0-20001-0-71917</t>
+          <t>0-20000-0-01152</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -8564,14 +8220,14 @@
         <v>66</v>
       </c>
       <c r="E67" t="n">
-        <v>71917</v>
+        <v>1152</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>EUREKA UA, NU</t>
+          <t>BODO VI</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8580,15 +8236,15 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>-85.93333333333334</v>
+        <v>14.35861111111111</v>
       </c>
       <c r="L67" t="n">
-        <v>79.98333333333333</v>
+        <v>67.26694444444445</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8611,11 +8267,11 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bodo</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -8648,20 +8304,18 @@
         </is>
       </c>
       <c r="AM67" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO67" t="n">
+        <v>2.7</v>
       </c>
       <c r="AP67" t="n">
-        <v>10.4</v>
+        <v>12.8</v>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>71917_stationfile.csv</t>
+          <t>01152_stationfile.csv</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -8676,7 +8330,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0-20300-0-71072</t>
+          <t>0-20000-0-21824</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -8686,14 +8340,14 @@
         <v>67</v>
       </c>
       <c r="E68" t="n">
-        <v>71072</v>
+        <v>21824</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>MOULD BAY</t>
+          <t>TIKSI</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8702,15 +8356,15 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>-119.35</v>
+        <v>128.9166666666667</v>
       </c>
       <c r="L68" t="n">
-        <v>76.25</v>
+        <v>71.58333333333333</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1948-06-06</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8733,13 +8387,9 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>37</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
@@ -8770,25 +8420,21 @@
         </is>
       </c>
       <c r="AM68" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="AN68" t="inlineStr"/>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>71072_stationfile.csv</t>
+          <t>21824_stationfile.csv</t>
         </is>
       </c>
       <c r="AR68" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -8798,7 +8444,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0-20001-0-71924</t>
+          <t>0-20300-0-25173</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -8808,14 +8454,14 @@
         <v>68</v>
       </c>
       <c r="E69" t="n">
-        <v>71924</v>
+        <v>25173</v>
       </c>
       <c r="F69" t="n">
         <v>3</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>RESOLUTE UA, NU</t>
+          <t>MYS SHMIDTA</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -8824,15 +8470,15 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>-94.96805555555557</v>
+        <v>-179.48</v>
       </c>
       <c r="L69" t="n">
-        <v>74.70416666666667</v>
+        <v>68.92</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8855,11 +8501,11 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anadyr</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -8892,25 +8538,23 @@
         </is>
       </c>
       <c r="AM69" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AN69" t="inlineStr"/>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO69" t="n">
+        <v>483.4</v>
       </c>
       <c r="AP69" t="n">
-        <v>67.68000000000001</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="inlineStr">
         <is>
-          <t>71924_stationfile.csv</t>
+          <t>25173_stationfile.csv</t>
         </is>
       </c>
       <c r="AR69" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -8920,7 +8564,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0-20000-0-23274</t>
+          <t>0-20000-0-23415</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -8930,14 +8574,14 @@
         <v>69</v>
       </c>
       <c r="E70" t="n">
-        <v>23274</v>
+        <v>23418</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>IGARKA</t>
+          <t>PECHORA (23415-0)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -8946,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>86.56666666666666</v>
+        <v>57.1</v>
       </c>
       <c r="L70" t="n">
-        <v>67.46666666666667</v>
+        <v>65.11666666666666</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
@@ -8959,7 +8603,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>1992-02-15</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -8981,7 +8625,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Dudinka</t>
+          <t>Pechora</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -9018,14 +8662,14 @@
       </c>
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="n">
-        <v>216.5</v>
+        <v>6.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>23274_stationfile.csv</t>
+          <t>23418_stationfile.csv</t>
         </is>
       </c>
       <c r="AR70" t="inlineStr">
@@ -9040,7 +8684,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0-20000-0-02185</t>
+          <t>0-20000-0-04320</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -9050,14 +8694,14 @@
         <v>70</v>
       </c>
       <c r="E71" t="n">
-        <v>2057</v>
+        <v>4320</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>LULEA-KALLAX (2185-0)</t>
+          <t>DANMARKSHAVN</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -9066,20 +8710,20 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>22.11444444444444</v>
+        <v>-18.66805555555556</v>
       </c>
       <c r="L71" t="n">
-        <v>65.54333333333334</v>
+        <v>76.76944444444445</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1963-08-23</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>1977-06-30</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -9097,13 +8741,9 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>196</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>Lulea</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
@@ -9134,18 +8774,16 @@
         </is>
       </c>
       <c r="AM71" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="AN71" t="inlineStr"/>
-      <c r="AO71" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>02057_stationfile.csv</t>
+          <t>04320_stationfile.csv</t>
         </is>
       </c>
       <c r="AR71" t="inlineStr">
@@ -9160,7 +8798,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0-20000-0-20667</t>
+          <t>0-20000-0-04220</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -9170,14 +8808,14 @@
         <v>71</v>
       </c>
       <c r="E72" t="n">
-        <v>20667</v>
+        <v>4220</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>IM. M.V. POPOVA</t>
+          <t>AASIAAT (EGEDESMINDE)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9186,20 +8824,20 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>70.06638888888888</v>
+        <v>-52.85166666666667</v>
       </c>
       <c r="L72" t="n">
-        <v>73.33277777777778</v>
+        <v>68.70805555555556</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>1958-05-03</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>1995-02-24</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -9217,13 +8855,9 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>190</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
@@ -9254,20 +8888,16 @@
         </is>
       </c>
       <c r="AM72" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="AN72" t="inlineStr"/>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="n">
-        <v>5.6</v>
+        <v>41</v>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>20667_stationfile.csv</t>
+          <t>04220_stationfile.csv</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -9282,7 +8912,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0-20000-0-25400</t>
+          <t>0-20000-0-04360</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -9292,14 +8922,14 @@
         <v>72</v>
       </c>
       <c r="E73" t="n">
-        <v>25400</v>
+        <v>4360</v>
       </c>
       <c r="F73" t="n">
         <v>3</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ZYRYANKA (25400-0)</t>
+          <t>TASIILAQ (AMMASSALIK)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9308,15 +8938,15 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>150.9</v>
+        <v>-37.63666666666666</v>
       </c>
       <c r="L73" t="n">
-        <v>65.73333333333333</v>
+        <v>65.6111111111111</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1963-04-11</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9339,13 +8969,9 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>190</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
@@ -9376,20 +9002,16 @@
         </is>
       </c>
       <c r="AM73" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="n">
-        <v>42.9</v>
+        <v>55.93</v>
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
-          <t>25400_stationfile.csv</t>
+          <t>04360_stationfile.csv</t>
         </is>
       </c>
       <c r="AR73" t="inlineStr">
@@ -9404,7 +9026,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0-20000-0-20107</t>
+          <t>0-20000-0-71074</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -9414,14 +9036,14 @@
         <v>73</v>
       </c>
       <c r="E74" t="n">
-        <v>20107</v>
+        <v>71074</v>
       </c>
       <c r="F74" t="n">
         <v>3</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>BARENTSBURG</t>
+          <t>ISACHSEN (AUT), NU</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9430,20 +9052,20 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>14.22111111111111</v>
+        <v>-103.5544444444444</v>
       </c>
       <c r="L74" t="n">
-        <v>78.05555555555556</v>
+        <v>78.79222222222222</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-08-18</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>1995-01-27</t>
+          <t>1978-06-19</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -9461,13 +9083,9 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>200</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
@@ -9498,20 +9116,16 @@
         </is>
       </c>
       <c r="AM74" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AN74" t="inlineStr"/>
-      <c r="AO74" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="n">
-        <v>75.8</v>
+        <v>58</v>
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
-          <t>20107_stationfile.csv</t>
+          <t>71074_stationfile.csv</t>
         </is>
       </c>
       <c r="AR74" t="inlineStr">
@@ -9526,7 +9140,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0-20300-0-23146</t>
+          <t>0-20000-0-22113</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -9536,14 +9150,14 @@
         <v>74</v>
       </c>
       <c r="E75" t="n">
-        <v>23146</v>
+        <v>22113</v>
       </c>
       <c r="F75" t="n">
         <v>3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>MYS KAMENNY</t>
+          <t>MURMANSK (22113-0)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9552,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>73.59999999999999</v>
+        <v>33.04277777777778</v>
       </c>
       <c r="L75" t="n">
-        <v>68.47</v>
+        <v>68.95583333333333</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -9565,7 +9179,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1995-04-04</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -9587,7 +9201,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Pangody</t>
+          <t>Murmansk</t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
@@ -9620,23 +9234,23 @@
         </is>
       </c>
       <c r="AM75" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="n">
-        <v>289.7</v>
+        <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2</v>
+        <v>50.6</v>
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
-          <t>23146_stationfile.csv</t>
+          <t>22113_stationfile.csv</t>
         </is>
       </c>
       <c r="AR75" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -9646,7 +9260,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0-20001-0-20744</t>
+          <t>0-20300-0-71051</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -9656,14 +9270,14 @@
         <v>75</v>
       </c>
       <c r="E76" t="n">
-        <v>20744</v>
+        <v>71051</v>
       </c>
       <c r="F76" t="n">
         <v>3</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>MALYE KARMAKULY (20744-1)</t>
+          <t>SACHS HARBOUR</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -9672,20 +9286,20 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>52.7</v>
+        <v>-125.27</v>
       </c>
       <c r="L76" t="n">
-        <v>72.36666666666666</v>
+        <v>72</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1955-11-01</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1992-03-21</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -9703,13 +9317,9 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>190</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>Naryan-Mar</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
@@ -9740,23 +9350,21 @@
         </is>
       </c>
       <c r="AM76" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AN76" t="inlineStr"/>
-      <c r="AO76" t="n">
-        <v>527.6</v>
-      </c>
+      <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="n">
-        <v>14.7</v>
+        <v>84</v>
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
-          <t>20744_stationfile.csv</t>
+          <t>71051_stationfile.csv</t>
         </is>
       </c>
       <c r="AR76" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9374,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0-20300-0-20274</t>
+          <t>0-20000-0-70086</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -9776,14 +9384,14 @@
         <v>76</v>
       </c>
       <c r="E77" t="n">
-        <v>20274</v>
+        <v>70086</v>
       </c>
       <c r="F77" t="n">
         <v>3</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>OSTROV UEDINENIA</t>
+          <t>BARTER ISLAND</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -9792,20 +9400,20 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>82.23</v>
+        <v>-143.6333333333333</v>
       </c>
       <c r="L77" t="n">
-        <v>77.5</v>
+        <v>70.13333333333334</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1953-04-04</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>1996-01-03</t>
+          <t>1989-06-21</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -9823,13 +9431,9 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>190</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
@@ -9860,25 +9464,21 @@
         </is>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN77" t="inlineStr"/>
-      <c r="AO77" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="n">
-        <v>23</v>
+        <v>11.9</v>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>20274_stationfile.csv</t>
+          <t>70086_stationfile.csv</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9488,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0-20000-0-20069</t>
+          <t>0-20000-0-02836</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -9898,14 +9498,14 @@
         <v>77</v>
       </c>
       <c r="E78" t="n">
-        <v>20069</v>
+        <v>2836</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>OSTROV VIZE</t>
+          <t>SODANKYLA ARCTIC RESEARCH CENTRE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -9914,10 +9514,10 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>76.98055555555555</v>
+        <v>26.62888888888889</v>
       </c>
       <c r="L78" t="n">
-        <v>79.49083333333333</v>
+        <v>67.36666666666666</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
@@ -9927,7 +9527,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>1996-04-22</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -9945,11 +9545,11 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rovaniemi</t>
         </is>
       </c>
       <c r="V78" t="inlineStr"/>
@@ -9985,17 +9585,15 @@
         <v>1</v>
       </c>
       <c r="AN78" t="inlineStr"/>
-      <c r="AO78" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO78" t="n">
+        <v>105.3</v>
       </c>
       <c r="AP78" t="n">
-        <v>10</v>
+        <v>179.3</v>
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>20069_stationfile.csv</t>
+          <t>02836_stationfile.csv</t>
         </is>
       </c>
       <c r="AR78" t="inlineStr">
@@ -10010,7 +9608,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0-20000-0-22217</t>
+          <t>0-20000-0-04202</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -10020,14 +9618,14 @@
         <v>78</v>
       </c>
       <c r="E79" t="n">
-        <v>22217</v>
+        <v>4202</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>KANDALAKSHA</t>
+          <t>PITUFFIK (THULE AIR BASE)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -10036,20 +9634,20 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>32.35416666666667</v>
+        <v>-68.75</v>
       </c>
       <c r="L79" t="n">
-        <v>67.16916666666667</v>
+        <v>76.53333333333333</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1952-08-01</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>1996-06-25</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -10067,13 +9665,9 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>190</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>Kandalaksha</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
@@ -10104,18 +9698,16 @@
         </is>
       </c>
       <c r="AM79" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="n">
-        <v>4.7</v>
-      </c>
+      <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="n">
-        <v>25.4</v>
+        <v>77</v>
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
-          <t>22217_stationfile.csv</t>
+          <t>04202_stationfile.csv</t>
         </is>
       </c>
       <c r="AR79" t="inlineStr">
@@ -10130,7 +9722,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0-20000-0-20046</t>
+          <t>0-20001-0-71925</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -10140,14 +9732,14 @@
         <v>79</v>
       </c>
       <c r="E80" t="n">
-        <v>20046</v>
+        <v>71925</v>
       </c>
       <c r="F80" t="n">
         <v>3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>POLARGMO IM. E.T. KRENKELJA</t>
+          <t>CAMBRIDGE BAY UA, NU</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -10156,15 +9748,15 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>58.05888888888889</v>
+        <v>-105.0666666666667</v>
       </c>
       <c r="L80" t="n">
-        <v>80.62638888888888</v>
+        <v>69.13333333333334</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1962-03-04</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10187,13 +9779,9 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>190</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
@@ -10224,20 +9812,16 @@
         </is>
       </c>
       <c r="AM80" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="AN80" t="inlineStr"/>
-      <c r="AO80" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="n">
-        <v>24.66</v>
+        <v>31.09</v>
       </c>
       <c r="AQ80" t="inlineStr">
         <is>
-          <t>20046_stationfile.csv</t>
+          <t>71925_stationfile.csv</t>
         </is>
       </c>
       <c r="AR80" t="inlineStr">
@@ -10252,7 +9836,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0-20000-0-23022</t>
+          <t>0-20001-0-71081</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -10262,14 +9846,14 @@
         <v>80</v>
       </c>
       <c r="E81" t="n">
-        <v>23022</v>
+        <v>71081</v>
       </c>
       <c r="F81" t="n">
         <v>3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>AMDERMA</t>
+          <t>HALL BEACH UA, NU</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10278,15 +9862,15 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>61.65777777777777</v>
+        <v>-81.21666666666667</v>
       </c>
       <c r="L81" t="n">
-        <v>69.78333333333333</v>
+        <v>68.76666666666667</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1957-08-01</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10309,13 +9893,9 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>190</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>Severnyy</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
@@ -10346,18 +9926,16 @@
         </is>
       </c>
       <c r="AM81" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AN81" t="inlineStr"/>
-      <c r="AO81" t="n">
-        <v>256.7</v>
-      </c>
+      <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="n">
-        <v>47.68</v>
+        <v>5.9</v>
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
-          <t>23022_stationfile.csv</t>
+          <t>71081_stationfile.csv</t>
         </is>
       </c>
       <c r="AR81" t="inlineStr">
@@ -10372,7 +9950,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0-20000-0-23330</t>
+          <t>0-20001-0-71082</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -10382,14 +9960,14 @@
         <v>81</v>
       </c>
       <c r="E82" t="n">
-        <v>23330</v>
+        <v>71082</v>
       </c>
       <c r="F82" t="n">
         <v>3</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>SALEHARD</t>
+          <t>ALERT UA, NU</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -10398,15 +9976,15 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>66.67444444444445</v>
+        <v>-62.33333333333334</v>
       </c>
       <c r="L82" t="n">
-        <v>66.53194444444445</v>
+        <v>82.5</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1950-09-10</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -10429,13 +10007,9 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>190</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>Salekhard</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
@@ -10466,18 +10040,16 @@
         </is>
       </c>
       <c r="AM82" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AN82" t="inlineStr"/>
-      <c r="AO82" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="n">
-        <v>16.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>23330_stationfile.csv</t>
+          <t>71082_stationfile.csv</t>
         </is>
       </c>
       <c r="AR82" t="inlineStr">
@@ -10492,7 +10064,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0-20000-0-01152</t>
+          <t>0-20001-0-71043</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -10502,14 +10074,14 @@
         <v>82</v>
       </c>
       <c r="E83" t="n">
-        <v>1152</v>
+        <v>71043</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BODO VI</t>
+          <t>NORMAN WELLS UA, NWT</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -10518,15 +10090,15 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>14.35861111111111</v>
+        <v>-126.75</v>
       </c>
       <c r="L83" t="n">
-        <v>67.26694444444445</v>
+        <v>65.28333333333333</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1955-07-01</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10549,13 +10121,9 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>166</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>Bodo</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
@@ -10586,18 +10154,16 @@
         </is>
       </c>
       <c r="AM83" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="n">
-        <v>2.7</v>
-      </c>
+      <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="n">
-        <v>12.8</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
-          <t>01152_stationfile.csv</t>
+          <t>71043_stationfile.csv</t>
         </is>
       </c>
       <c r="AR83" t="inlineStr">
@@ -10612,7 +10178,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0-20000-0-23415</t>
+          <t>0-20000-0-70026</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -10622,14 +10188,14 @@
         <v>83</v>
       </c>
       <c r="E84" t="n">
-        <v>23418</v>
+        <v>70026</v>
       </c>
       <c r="F84" t="n">
         <v>3</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PECHORA (23415-0)</t>
+          <t>BARROW/W. POST W. ROGERS</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -10638,15 +10204,15 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>57.1</v>
+        <v>-156.7833333333333</v>
       </c>
       <c r="L84" t="n">
-        <v>65.11666666666666</v>
+        <v>71.28888888888889</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -10669,13 +10235,9 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>190</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>Pechora</t>
-        </is>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
@@ -10706,18 +10268,16 @@
         </is>
       </c>
       <c r="AM84" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AN84" t="inlineStr"/>
-      <c r="AO84" t="n">
-        <v>6.6</v>
-      </c>
+      <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="n">
-        <v>59</v>
+        <v>11.9</v>
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>23418_stationfile.csv</t>
+          <t>70026_stationfile.csv</t>
         </is>
       </c>
       <c r="AR84" t="inlineStr">
@@ -10732,7 +10292,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0-20000-0-23205</t>
+          <t>0-20001-0-71957</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -10742,14 +10302,14 @@
         <v>84</v>
       </c>
       <c r="E85" t="n">
-        <v>23205</v>
+        <v>71957</v>
       </c>
       <c r="F85" t="n">
         <v>3</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>NAR'JAN-MAR</t>
+          <t>INUVIK UA, NWT</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -10758,15 +10318,15 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>53.0175</v>
+        <v>-133.5166666666667</v>
       </c>
       <c r="L85" t="n">
-        <v>67.625</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1960-09-12</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -10789,13 +10349,9 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>190</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>Naryan-Mar</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
@@ -10826,18 +10382,16 @@
         </is>
       </c>
       <c r="AM85" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="AN85" t="inlineStr"/>
-      <c r="AO85" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="n">
-        <v>11.75</v>
+        <v>67.67</v>
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
-          <t>23205_stationfile.csv</t>
+          <t>71957_stationfile.csv</t>
         </is>
       </c>
       <c r="AR85" t="inlineStr">
@@ -10852,7 +10406,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0-20000-0-22113</t>
+          <t>0-20001-0-71917</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -10862,14 +10416,14 @@
         <v>85</v>
       </c>
       <c r="E86" t="n">
-        <v>22113</v>
+        <v>71917</v>
       </c>
       <c r="F86" t="n">
         <v>3</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MURMANSK (22113-0)</t>
+          <t>EUREKA UA, NU</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -10878,15 +10432,15 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>33.04277777777778</v>
+        <v>-85.93333333333334</v>
       </c>
       <c r="L86" t="n">
-        <v>68.95583333333333</v>
+        <v>79.98333333333333</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -10909,13 +10463,9 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>190</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>Murmansk</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
@@ -10946,18 +10496,16 @@
         </is>
       </c>
       <c r="AM86" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AN86" t="inlineStr"/>
-      <c r="AO86" t="n">
-        <v>2</v>
-      </c>
+      <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="n">
-        <v>50.6</v>
+        <v>10.4</v>
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t>22113_stationfile.csv</t>
+          <t>71917_stationfile.csv</t>
         </is>
       </c>
       <c r="AR86" t="inlineStr">
@@ -10972,7 +10520,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0-20000-0-23472</t>
+          <t>0-20300-0-71072</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -10982,14 +10530,14 @@
         <v>86</v>
       </c>
       <c r="E87" t="n">
-        <v>23472</v>
+        <v>71072</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>TURUHANSK</t>
+          <t>MOULD BAY</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -10998,15 +10546,15 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>87.98888888888889</v>
+        <v>-119.35</v>
       </c>
       <c r="L87" t="n">
-        <v>65.79444444444444</v>
+        <v>76.25</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-06-06</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11029,13 +10577,9 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>190</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Norilsk</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
@@ -11069,20 +10613,18 @@
         <v>2.4</v>
       </c>
       <c r="AN87" t="inlineStr"/>
-      <c r="AO87" t="n">
-        <v>398.7</v>
-      </c>
+      <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="n">
-        <v>37.84</v>
+        <v>58</v>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>23472_stationfile.csv</t>
+          <t>71072_stationfile.csv</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -11092,7 +10634,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0-20000-0-02836</t>
+          <t>0-20001-0-71924</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -11102,14 +10644,14 @@
         <v>87</v>
       </c>
       <c r="E88" t="n">
-        <v>2836</v>
+        <v>71924</v>
       </c>
       <c r="F88" t="n">
         <v>3</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>SODANKYLA ARCTIC RESEARCH CENTRE</t>
+          <t>RESOLUTE UA, NU</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -11118,15 +10660,15 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>26.62888888888889</v>
+        <v>-94.96805555555557</v>
       </c>
       <c r="L88" t="n">
-        <v>67.36666666666666</v>
+        <v>74.70416666666667</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11149,13 +10691,9 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>69</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>Rovaniemi</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
@@ -11186,18 +10724,16 @@
         </is>
       </c>
       <c r="AM88" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AN88" t="inlineStr"/>
-      <c r="AO88" t="n">
-        <v>105.3</v>
-      </c>
+      <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="n">
-        <v>179.3</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
-          <t>02836_stationfile.csv</t>
+          <t>71924_stationfile.csv</t>
         </is>
       </c>
       <c r="AR88" t="inlineStr">
